--- a/Code/Results/Cases/Case_0_25/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_25/res_line/loading_percent.xlsx
@@ -415,34 +415,34 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>7.435553355816755</v>
+        <v>7.435553355816641</v>
       </c>
       <c r="D2">
-        <v>10.94463308654326</v>
+        <v>10.9446330865434</v>
       </c>
       <c r="E2">
-        <v>33.49114720103902</v>
+        <v>33.4911472010391</v>
       </c>
       <c r="F2">
-        <v>60.73103240251504</v>
+        <v>60.73103240251474</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>46.03592065994206</v>
+        <v>46.0359206599419</v>
       </c>
       <c r="I2">
-        <v>23.65783296279967</v>
+        <v>23.65783296279981</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>25.61633012337949</v>
+        <v>25.61633012337955</v>
       </c>
       <c r="L2">
-        <v>111.2451208185578</v>
+        <v>111.2451208185579</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -453,34 +453,34 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>6.382836295476489</v>
+        <v>6.382836295476793</v>
       </c>
       <c r="D3">
-        <v>9.200479725028686</v>
+        <v>9.200479725028828</v>
       </c>
       <c r="E3">
-        <v>29.82451710059873</v>
+        <v>29.82451710059875</v>
       </c>
       <c r="F3">
-        <v>49.23851909731452</v>
+        <v>49.23851909731607</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>37.41092138918432</v>
+        <v>37.41092138918545</v>
       </c>
       <c r="I3">
-        <v>20.69599349224401</v>
+        <v>20.69599349224403</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>22.66454758087424</v>
+        <v>22.66454758087427</v>
       </c>
       <c r="L3">
-        <v>99.11852919518974</v>
+        <v>99.11852919519005</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -491,34 +491,34 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>5.849062971972877</v>
+        <v>5.84906297197317</v>
       </c>
       <c r="D4">
-        <v>8.336086127027407</v>
+        <v>8.336086127027661</v>
       </c>
       <c r="E4">
         <v>27.85647022413109</v>
       </c>
       <c r="F4">
-        <v>43.75187601062679</v>
+        <v>43.75187601062729</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>33.26606733110952</v>
+        <v>33.26606733110991</v>
       </c>
       <c r="I4">
-        <v>19.17639543387462</v>
+        <v>19.17639543387466</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>21.11071877809263</v>
+        <v>21.11071877809266</v>
       </c>
       <c r="L4">
-        <v>92.58331829570824</v>
+        <v>92.58331829570835</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -529,34 +529,34 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>5.644643967883405</v>
+        <v>5.644643967883497</v>
       </c>
       <c r="D5">
-        <v>8.008657004924265</v>
+        <v>8.00865700492435</v>
       </c>
       <c r="E5">
-        <v>27.08250939076675</v>
+        <v>27.08250939076678</v>
       </c>
       <c r="F5">
-        <v>41.72107753747456</v>
+        <v>41.72107753747471</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>31.72500490896829</v>
+        <v>31.72500490896844</v>
       </c>
       <c r="I5">
-        <v>18.589920820361</v>
+        <v>18.58992082036105</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>20.50444255098315</v>
+        <v>20.5044425509832</v>
       </c>
       <c r="L5">
-        <v>90.01027401847728</v>
+        <v>90.01027401847736</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -567,34 +567,34 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>5.611264418710095</v>
+        <v>5.611264418710267</v>
       </c>
       <c r="D6">
-        <v>7.955382919682863</v>
+        <v>7.95538291968283</v>
       </c>
       <c r="E6">
-        <v>26.9550443040045</v>
+        <v>26.95504430400453</v>
       </c>
       <c r="F6">
-        <v>41.39347049058022</v>
+        <v>41.39347049058081</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>31.47597157801383</v>
+        <v>31.47597157801421</v>
       </c>
       <c r="I6">
-        <v>18.49388867010336</v>
+        <v>18.49388867010334</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>20.40483169167338</v>
+        <v>20.40483169167339</v>
       </c>
       <c r="L6">
-        <v>89.58638861750275</v>
+        <v>89.58638861750292</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -605,34 +605,34 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>5.846264139302139</v>
+        <v>5.84626413930218</v>
       </c>
       <c r="D7">
-        <v>8.331589500110175</v>
+        <v>8.331589500110201</v>
       </c>
       <c r="E7">
-        <v>27.84595014328601</v>
+        <v>27.84595014328617</v>
       </c>
       <c r="F7">
-        <v>43.72379359978487</v>
+        <v>43.72379359978586</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>33.24478641853497</v>
+        <v>33.24478641853568</v>
       </c>
       <c r="I7">
-        <v>19.16838396596591</v>
+        <v>19.16838396596603</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>21.10246088504549</v>
+        <v>21.10246088504561</v>
       </c>
       <c r="L7">
-        <v>92.54835363299046</v>
+        <v>92.54835363299097</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -643,25 +643,25 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>7.033446956150557</v>
+        <v>7.033446956150494</v>
       </c>
       <c r="D8">
-        <v>10.27227450682741</v>
+        <v>10.27227450682727</v>
       </c>
       <c r="E8">
-        <v>32.12325724480841</v>
+        <v>32.12325724480843</v>
       </c>
       <c r="F8">
-        <v>56.24477392315106</v>
+        <v>56.2447739231509</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>42.67587923897567</v>
+        <v>42.6758792389755</v>
       </c>
       <c r="I8">
-        <v>22.53040423492427</v>
+        <v>22.53040423492426</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>24.50527516131334</v>
       </c>
       <c r="L8">
-        <v>106.7311589275478</v>
+        <v>106.7311589275477</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -681,25 +681,25 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>7.033446956150557</v>
+        <v>7.033446956150494</v>
       </c>
       <c r="D9">
-        <v>10.27227450682741</v>
+        <v>10.27227450682727</v>
       </c>
       <c r="E9">
-        <v>32.12325724480841</v>
+        <v>32.12325724480843</v>
       </c>
       <c r="F9">
-        <v>56.24477392315106</v>
+        <v>56.2447739231509</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>42.67587923897567</v>
+        <v>42.6758792389755</v>
       </c>
       <c r="I9">
-        <v>22.53040423492427</v>
+        <v>22.53040423492426</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -708,7 +708,7 @@
         <v>24.50527516131334</v>
       </c>
       <c r="L9">
-        <v>106.7311589275478</v>
+        <v>106.7311589275477</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -719,25 +719,25 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>7.033446956150557</v>
+        <v>7.033446956150494</v>
       </c>
       <c r="D10">
-        <v>10.27227450682741</v>
+        <v>10.27227450682727</v>
       </c>
       <c r="E10">
-        <v>32.12325724480841</v>
+        <v>32.12325724480843</v>
       </c>
       <c r="F10">
-        <v>56.24477392315106</v>
+        <v>56.2447739231509</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>42.67587923897567</v>
+        <v>42.6758792389755</v>
       </c>
       <c r="I10">
-        <v>22.53040423492427</v>
+        <v>22.53040423492426</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>24.50527516131334</v>
       </c>
       <c r="L10">
-        <v>106.7311589275478</v>
+        <v>106.7311589275477</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -757,25 +757,25 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>7.033446956150557</v>
+        <v>7.033446956150494</v>
       </c>
       <c r="D11">
-        <v>10.27227450682741</v>
+        <v>10.27227450682727</v>
       </c>
       <c r="E11">
-        <v>32.12325724480841</v>
+        <v>32.12325724480843</v>
       </c>
       <c r="F11">
-        <v>56.24477392315106</v>
+        <v>56.2447739231509</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>42.67587923897567</v>
+        <v>42.6758792389755</v>
       </c>
       <c r="I11">
-        <v>22.53040423492427</v>
+        <v>22.53040423492426</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -784,7 +784,7 @@
         <v>24.50527516131334</v>
       </c>
       <c r="L11">
-        <v>106.7311589275478</v>
+        <v>106.7311589275477</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -795,25 +795,25 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>7.033446956150557</v>
+        <v>7.033446956150494</v>
       </c>
       <c r="D12">
-        <v>10.27227450682741</v>
+        <v>10.27227450682727</v>
       </c>
       <c r="E12">
-        <v>32.12325724480841</v>
+        <v>32.12325724480843</v>
       </c>
       <c r="F12">
-        <v>56.24477392315106</v>
+        <v>56.2447739231509</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>42.67587923897567</v>
+        <v>42.6758792389755</v>
       </c>
       <c r="I12">
-        <v>22.53040423492427</v>
+        <v>22.53040423492426</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>24.50527516131334</v>
       </c>
       <c r="L12">
-        <v>106.7311589275478</v>
+        <v>106.7311589275477</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -833,25 +833,25 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>7.033446956150557</v>
+        <v>7.033446956150494</v>
       </c>
       <c r="D13">
-        <v>10.27227450682741</v>
+        <v>10.27227450682727</v>
       </c>
       <c r="E13">
-        <v>32.12325724480841</v>
+        <v>32.12325724480843</v>
       </c>
       <c r="F13">
-        <v>56.24477392315106</v>
+        <v>56.2447739231509</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>42.67587923897567</v>
+        <v>42.6758792389755</v>
       </c>
       <c r="I13">
-        <v>22.53040423492427</v>
+        <v>22.53040423492426</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>24.50527516131334</v>
       </c>
       <c r="L13">
-        <v>106.7311589275478</v>
+        <v>106.7311589275477</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -871,25 +871,25 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>7.033446956150557</v>
+        <v>7.033446956150494</v>
       </c>
       <c r="D14">
-        <v>10.27227450682741</v>
+        <v>10.27227450682727</v>
       </c>
       <c r="E14">
-        <v>32.12325724480841</v>
+        <v>32.12325724480843</v>
       </c>
       <c r="F14">
-        <v>56.24477392315106</v>
+        <v>56.2447739231509</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>42.67587923897567</v>
+        <v>42.6758792389755</v>
       </c>
       <c r="I14">
-        <v>22.53040423492427</v>
+        <v>22.53040423492426</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>24.50527516131334</v>
       </c>
       <c r="L14">
-        <v>106.7311589275478</v>
+        <v>106.7311589275477</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -909,25 +909,25 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>7.033446956150557</v>
+        <v>7.033446956150494</v>
       </c>
       <c r="D15">
-        <v>10.27227450682741</v>
+        <v>10.27227450682727</v>
       </c>
       <c r="E15">
-        <v>32.12325724480841</v>
+        <v>32.12325724480843</v>
       </c>
       <c r="F15">
-        <v>56.24477392315106</v>
+        <v>56.2447739231509</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>42.67587923897567</v>
+        <v>42.6758792389755</v>
       </c>
       <c r="I15">
-        <v>22.53040423492427</v>
+        <v>22.53040423492426</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -936,7 +936,7 @@
         <v>24.50527516131334</v>
       </c>
       <c r="L15">
-        <v>106.7311589275478</v>
+        <v>106.7311589275477</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -947,25 +947,25 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>7.033446956150557</v>
+        <v>7.033446956150494</v>
       </c>
       <c r="D16">
-        <v>10.27227450682741</v>
+        <v>10.27227450682727</v>
       </c>
       <c r="E16">
-        <v>32.12325724480841</v>
+        <v>32.12325724480843</v>
       </c>
       <c r="F16">
-        <v>56.24477392315106</v>
+        <v>56.2447739231509</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>42.67587923897567</v>
+        <v>42.6758792389755</v>
       </c>
       <c r="I16">
-        <v>22.53040423492427</v>
+        <v>22.53040423492426</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>24.50527516131334</v>
       </c>
       <c r="L16">
-        <v>106.7311589275478</v>
+        <v>106.7311589275477</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -985,25 +985,25 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>7.033446956150557</v>
+        <v>7.033446956150494</v>
       </c>
       <c r="D17">
-        <v>10.27227450682741</v>
+        <v>10.27227450682727</v>
       </c>
       <c r="E17">
-        <v>32.12325724480841</v>
+        <v>32.12325724480843</v>
       </c>
       <c r="F17">
-        <v>56.24477392315106</v>
+        <v>56.2447739231509</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>42.67587923897567</v>
+        <v>42.6758792389755</v>
       </c>
       <c r="I17">
-        <v>22.53040423492427</v>
+        <v>22.53040423492426</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>24.50527516131334</v>
       </c>
       <c r="L17">
-        <v>106.7311589275478</v>
+        <v>106.7311589275477</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1023,25 +1023,25 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>7.033446956150557</v>
+        <v>7.033446956150494</v>
       </c>
       <c r="D18">
-        <v>10.27227450682741</v>
+        <v>10.27227450682727</v>
       </c>
       <c r="E18">
-        <v>32.12325724480841</v>
+        <v>32.12325724480843</v>
       </c>
       <c r="F18">
-        <v>56.24477392315106</v>
+        <v>56.2447739231509</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>42.67587923897567</v>
+        <v>42.6758792389755</v>
       </c>
       <c r="I18">
-        <v>22.53040423492427</v>
+        <v>22.53040423492426</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>24.50527516131334</v>
       </c>
       <c r="L18">
-        <v>106.7311589275478</v>
+        <v>106.7311589275477</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1061,25 +1061,25 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>7.033446956150557</v>
+        <v>7.033446956150494</v>
       </c>
       <c r="D19">
-        <v>10.27227450682741</v>
+        <v>10.27227450682727</v>
       </c>
       <c r="E19">
-        <v>32.12325724480841</v>
+        <v>32.12325724480843</v>
       </c>
       <c r="F19">
-        <v>56.24477392315106</v>
+        <v>56.2447739231509</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>42.67587923897567</v>
+        <v>42.6758792389755</v>
       </c>
       <c r="I19">
-        <v>22.53040423492427</v>
+        <v>22.53040423492426</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1088,7 +1088,7 @@
         <v>24.50527516131334</v>
       </c>
       <c r="L19">
-        <v>106.7311589275478</v>
+        <v>106.7311589275477</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>7.033446956150557</v>
+        <v>7.033446956150494</v>
       </c>
       <c r="D20">
-        <v>10.27227450682741</v>
+        <v>10.27227450682727</v>
       </c>
       <c r="E20">
-        <v>32.12325724480841</v>
+        <v>32.12325724480843</v>
       </c>
       <c r="F20">
-        <v>56.24477392315106</v>
+        <v>56.2447739231509</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>42.67587923897567</v>
+        <v>42.6758792389755</v>
       </c>
       <c r="I20">
-        <v>22.53040423492427</v>
+        <v>22.53040423492426</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1126,7 +1126,7 @@
         <v>24.50527516131334</v>
       </c>
       <c r="L20">
-        <v>106.7311589275478</v>
+        <v>106.7311589275477</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1137,25 +1137,25 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>7.033446956150557</v>
+        <v>7.033446956150494</v>
       </c>
       <c r="D21">
-        <v>10.27227450682741</v>
+        <v>10.27227450682727</v>
       </c>
       <c r="E21">
-        <v>32.12325724480841</v>
+        <v>32.12325724480843</v>
       </c>
       <c r="F21">
-        <v>56.24477392315106</v>
+        <v>56.2447739231509</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>42.67587923897567</v>
+        <v>42.6758792389755</v>
       </c>
       <c r="I21">
-        <v>22.53040423492427</v>
+        <v>22.53040423492426</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1164,7 +1164,7 @@
         <v>24.50527516131334</v>
       </c>
       <c r="L21">
-        <v>106.7311589275478</v>
+        <v>106.7311589275477</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1175,25 +1175,25 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>7.033446956150557</v>
+        <v>7.033446956150494</v>
       </c>
       <c r="D22">
-        <v>10.27227450682741</v>
+        <v>10.27227450682727</v>
       </c>
       <c r="E22">
-        <v>32.12325724480841</v>
+        <v>32.12325724480843</v>
       </c>
       <c r="F22">
-        <v>56.24477392315106</v>
+        <v>56.2447739231509</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>42.67587923897567</v>
+        <v>42.6758792389755</v>
       </c>
       <c r="I22">
-        <v>22.53040423492427</v>
+        <v>22.53040423492426</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1202,7 +1202,7 @@
         <v>24.50527516131334</v>
       </c>
       <c r="L22">
-        <v>106.7311589275478</v>
+        <v>106.7311589275477</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1213,25 +1213,25 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>7.033446956150557</v>
+        <v>7.033446956150494</v>
       </c>
       <c r="D23">
-        <v>10.27227450682741</v>
+        <v>10.27227450682727</v>
       </c>
       <c r="E23">
-        <v>32.12325724480841</v>
+        <v>32.12325724480843</v>
       </c>
       <c r="F23">
-        <v>56.24477392315106</v>
+        <v>56.2447739231509</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>42.67587923897567</v>
+        <v>42.6758792389755</v>
       </c>
       <c r="I23">
-        <v>22.53040423492427</v>
+        <v>22.53040423492426</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>24.50527516131334</v>
       </c>
       <c r="L23">
-        <v>106.7311589275478</v>
+        <v>106.7311589275477</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1251,25 +1251,25 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>7.033446956150557</v>
+        <v>7.033446956150494</v>
       </c>
       <c r="D24">
-        <v>10.27227450682741</v>
+        <v>10.27227450682727</v>
       </c>
       <c r="E24">
-        <v>32.12325724480841</v>
+        <v>32.12325724480843</v>
       </c>
       <c r="F24">
-        <v>56.24477392315106</v>
+        <v>56.2447739231509</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>42.67587923897567</v>
+        <v>42.6758792389755</v>
       </c>
       <c r="I24">
-        <v>22.53040423492427</v>
+        <v>22.53040423492426</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>24.50527516131334</v>
       </c>
       <c r="L24">
-        <v>106.7311589275478</v>
+        <v>106.7311589275477</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1289,25 +1289,25 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>7.033446956150557</v>
+        <v>7.033446956150494</v>
       </c>
       <c r="D25">
-        <v>10.27227450682741</v>
+        <v>10.27227450682727</v>
       </c>
       <c r="E25">
-        <v>32.12325724480841</v>
+        <v>32.12325724480843</v>
       </c>
       <c r="F25">
-        <v>56.24477392315106</v>
+        <v>56.2447739231509</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>42.67587923897567</v>
+        <v>42.6758792389755</v>
       </c>
       <c r="I25">
-        <v>22.53040423492427</v>
+        <v>22.53040423492426</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>24.50527516131334</v>
       </c>
       <c r="L25">
-        <v>106.7311589275478</v>
+        <v>106.7311589275477</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_25/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_25/res_line/loading_percent.xlsx
@@ -415,34 +415,34 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>7.435553355816641</v>
+        <v>7.435553355816755</v>
       </c>
       <c r="D2">
-        <v>10.9446330865434</v>
+        <v>10.94463308654326</v>
       </c>
       <c r="E2">
-        <v>33.4911472010391</v>
+        <v>33.49114720103902</v>
       </c>
       <c r="F2">
-        <v>60.73103240251474</v>
+        <v>60.73103240251504</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>46.0359206599419</v>
+        <v>46.03592065994206</v>
       </c>
       <c r="I2">
-        <v>23.65783296279981</v>
+        <v>23.65783296279967</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>25.61633012337955</v>
+        <v>25.61633012337949</v>
       </c>
       <c r="L2">
-        <v>111.2451208185579</v>
+        <v>111.2451208185578</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -453,34 +453,34 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>6.382836295476793</v>
+        <v>6.382836295476489</v>
       </c>
       <c r="D3">
-        <v>9.200479725028828</v>
+        <v>9.200479725028686</v>
       </c>
       <c r="E3">
-        <v>29.82451710059875</v>
+        <v>29.82451710059873</v>
       </c>
       <c r="F3">
-        <v>49.23851909731607</v>
+        <v>49.23851909731452</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>37.41092138918545</v>
+        <v>37.41092138918432</v>
       </c>
       <c r="I3">
-        <v>20.69599349224403</v>
+        <v>20.69599349224401</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>22.66454758087427</v>
+        <v>22.66454758087424</v>
       </c>
       <c r="L3">
-        <v>99.11852919519005</v>
+        <v>99.11852919518974</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -491,34 +491,34 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>5.84906297197317</v>
+        <v>5.849062971972877</v>
       </c>
       <c r="D4">
-        <v>8.336086127027661</v>
+        <v>8.336086127027407</v>
       </c>
       <c r="E4">
         <v>27.85647022413109</v>
       </c>
       <c r="F4">
-        <v>43.75187601062729</v>
+        <v>43.75187601062679</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>33.26606733110991</v>
+        <v>33.26606733110952</v>
       </c>
       <c r="I4">
-        <v>19.17639543387466</v>
+        <v>19.17639543387462</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>21.11071877809266</v>
+        <v>21.11071877809263</v>
       </c>
       <c r="L4">
-        <v>92.58331829570835</v>
+        <v>92.58331829570824</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -529,34 +529,34 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>5.644643967883497</v>
+        <v>5.644643967883405</v>
       </c>
       <c r="D5">
-        <v>8.00865700492435</v>
+        <v>8.008657004924265</v>
       </c>
       <c r="E5">
-        <v>27.08250939076678</v>
+        <v>27.08250939076675</v>
       </c>
       <c r="F5">
-        <v>41.72107753747471</v>
+        <v>41.72107753747456</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>31.72500490896844</v>
+        <v>31.72500490896829</v>
       </c>
       <c r="I5">
-        <v>18.58992082036105</v>
+        <v>18.589920820361</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>20.5044425509832</v>
+        <v>20.50444255098315</v>
       </c>
       <c r="L5">
-        <v>90.01027401847736</v>
+        <v>90.01027401847728</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -567,34 +567,34 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>5.611264418710267</v>
+        <v>5.611264418710095</v>
       </c>
       <c r="D6">
-        <v>7.95538291968283</v>
+        <v>7.955382919682863</v>
       </c>
       <c r="E6">
-        <v>26.95504430400453</v>
+        <v>26.9550443040045</v>
       </c>
       <c r="F6">
-        <v>41.39347049058081</v>
+        <v>41.39347049058022</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>31.47597157801421</v>
+        <v>31.47597157801383</v>
       </c>
       <c r="I6">
-        <v>18.49388867010334</v>
+        <v>18.49388867010336</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>20.40483169167339</v>
+        <v>20.40483169167338</v>
       </c>
       <c r="L6">
-        <v>89.58638861750292</v>
+        <v>89.58638861750275</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -605,34 +605,34 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>5.84626413930218</v>
+        <v>5.846264139302139</v>
       </c>
       <c r="D7">
-        <v>8.331589500110201</v>
+        <v>8.331589500110175</v>
       </c>
       <c r="E7">
-        <v>27.84595014328617</v>
+        <v>27.84595014328601</v>
       </c>
       <c r="F7">
-        <v>43.72379359978586</v>
+        <v>43.72379359978487</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>33.24478641853568</v>
+        <v>33.24478641853497</v>
       </c>
       <c r="I7">
-        <v>19.16838396596603</v>
+        <v>19.16838396596591</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>21.10246088504561</v>
+        <v>21.10246088504549</v>
       </c>
       <c r="L7">
-        <v>92.54835363299097</v>
+        <v>92.54835363299046</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -643,25 +643,25 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>7.033446956150494</v>
+        <v>7.033446956150557</v>
       </c>
       <c r="D8">
-        <v>10.27227450682727</v>
+        <v>10.27227450682741</v>
       </c>
       <c r="E8">
-        <v>32.12325724480843</v>
+        <v>32.12325724480841</v>
       </c>
       <c r="F8">
-        <v>56.2447739231509</v>
+        <v>56.24477392315106</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>42.6758792389755</v>
+        <v>42.67587923897567</v>
       </c>
       <c r="I8">
-        <v>22.53040423492426</v>
+        <v>22.53040423492427</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>24.50527516131334</v>
       </c>
       <c r="L8">
-        <v>106.7311589275477</v>
+        <v>106.7311589275478</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -681,25 +681,25 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>7.033446956150494</v>
+        <v>7.033446956150557</v>
       </c>
       <c r="D9">
-        <v>10.27227450682727</v>
+        <v>10.27227450682741</v>
       </c>
       <c r="E9">
-        <v>32.12325724480843</v>
+        <v>32.12325724480841</v>
       </c>
       <c r="F9">
-        <v>56.2447739231509</v>
+        <v>56.24477392315106</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>42.6758792389755</v>
+        <v>42.67587923897567</v>
       </c>
       <c r="I9">
-        <v>22.53040423492426</v>
+        <v>22.53040423492427</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -708,7 +708,7 @@
         <v>24.50527516131334</v>
       </c>
       <c r="L9">
-        <v>106.7311589275477</v>
+        <v>106.7311589275478</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -719,25 +719,25 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>7.033446956150494</v>
+        <v>7.033446956150557</v>
       </c>
       <c r="D10">
-        <v>10.27227450682727</v>
+        <v>10.27227450682741</v>
       </c>
       <c r="E10">
-        <v>32.12325724480843</v>
+        <v>32.12325724480841</v>
       </c>
       <c r="F10">
-        <v>56.2447739231509</v>
+        <v>56.24477392315106</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>42.6758792389755</v>
+        <v>42.67587923897567</v>
       </c>
       <c r="I10">
-        <v>22.53040423492426</v>
+        <v>22.53040423492427</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>24.50527516131334</v>
       </c>
       <c r="L10">
-        <v>106.7311589275477</v>
+        <v>106.7311589275478</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -757,25 +757,25 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>7.033446956150494</v>
+        <v>7.033446956150557</v>
       </c>
       <c r="D11">
-        <v>10.27227450682727</v>
+        <v>10.27227450682741</v>
       </c>
       <c r="E11">
-        <v>32.12325724480843</v>
+        <v>32.12325724480841</v>
       </c>
       <c r="F11">
-        <v>56.2447739231509</v>
+        <v>56.24477392315106</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>42.6758792389755</v>
+        <v>42.67587923897567</v>
       </c>
       <c r="I11">
-        <v>22.53040423492426</v>
+        <v>22.53040423492427</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -784,7 +784,7 @@
         <v>24.50527516131334</v>
       </c>
       <c r="L11">
-        <v>106.7311589275477</v>
+        <v>106.7311589275478</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -795,25 +795,25 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>7.033446956150494</v>
+        <v>7.033446956150557</v>
       </c>
       <c r="D12">
-        <v>10.27227450682727</v>
+        <v>10.27227450682741</v>
       </c>
       <c r="E12">
-        <v>32.12325724480843</v>
+        <v>32.12325724480841</v>
       </c>
       <c r="F12">
-        <v>56.2447739231509</v>
+        <v>56.24477392315106</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>42.6758792389755</v>
+        <v>42.67587923897567</v>
       </c>
       <c r="I12">
-        <v>22.53040423492426</v>
+        <v>22.53040423492427</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>24.50527516131334</v>
       </c>
       <c r="L12">
-        <v>106.7311589275477</v>
+        <v>106.7311589275478</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -833,25 +833,25 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>7.033446956150494</v>
+        <v>7.033446956150557</v>
       </c>
       <c r="D13">
-        <v>10.27227450682727</v>
+        <v>10.27227450682741</v>
       </c>
       <c r="E13">
-        <v>32.12325724480843</v>
+        <v>32.12325724480841</v>
       </c>
       <c r="F13">
-        <v>56.2447739231509</v>
+        <v>56.24477392315106</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>42.6758792389755</v>
+        <v>42.67587923897567</v>
       </c>
       <c r="I13">
-        <v>22.53040423492426</v>
+        <v>22.53040423492427</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>24.50527516131334</v>
       </c>
       <c r="L13">
-        <v>106.7311589275477</v>
+        <v>106.7311589275478</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -871,25 +871,25 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>7.033446956150494</v>
+        <v>7.033446956150557</v>
       </c>
       <c r="D14">
-        <v>10.27227450682727</v>
+        <v>10.27227450682741</v>
       </c>
       <c r="E14">
-        <v>32.12325724480843</v>
+        <v>32.12325724480841</v>
       </c>
       <c r="F14">
-        <v>56.2447739231509</v>
+        <v>56.24477392315106</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>42.6758792389755</v>
+        <v>42.67587923897567</v>
       </c>
       <c r="I14">
-        <v>22.53040423492426</v>
+        <v>22.53040423492427</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>24.50527516131334</v>
       </c>
       <c r="L14">
-        <v>106.7311589275477</v>
+        <v>106.7311589275478</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -909,25 +909,25 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>7.033446956150494</v>
+        <v>7.033446956150557</v>
       </c>
       <c r="D15">
-        <v>10.27227450682727</v>
+        <v>10.27227450682741</v>
       </c>
       <c r="E15">
-        <v>32.12325724480843</v>
+        <v>32.12325724480841</v>
       </c>
       <c r="F15">
-        <v>56.2447739231509</v>
+        <v>56.24477392315106</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>42.6758792389755</v>
+        <v>42.67587923897567</v>
       </c>
       <c r="I15">
-        <v>22.53040423492426</v>
+        <v>22.53040423492427</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -936,7 +936,7 @@
         <v>24.50527516131334</v>
       </c>
       <c r="L15">
-        <v>106.7311589275477</v>
+        <v>106.7311589275478</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -947,25 +947,25 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>7.033446956150494</v>
+        <v>7.033446956150557</v>
       </c>
       <c r="D16">
-        <v>10.27227450682727</v>
+        <v>10.27227450682741</v>
       </c>
       <c r="E16">
-        <v>32.12325724480843</v>
+        <v>32.12325724480841</v>
       </c>
       <c r="F16">
-        <v>56.2447739231509</v>
+        <v>56.24477392315106</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>42.6758792389755</v>
+        <v>42.67587923897567</v>
       </c>
       <c r="I16">
-        <v>22.53040423492426</v>
+        <v>22.53040423492427</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>24.50527516131334</v>
       </c>
       <c r="L16">
-        <v>106.7311589275477</v>
+        <v>106.7311589275478</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -985,25 +985,25 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>7.033446956150494</v>
+        <v>7.033446956150557</v>
       </c>
       <c r="D17">
-        <v>10.27227450682727</v>
+        <v>10.27227450682741</v>
       </c>
       <c r="E17">
-        <v>32.12325724480843</v>
+        <v>32.12325724480841</v>
       </c>
       <c r="F17">
-        <v>56.2447739231509</v>
+        <v>56.24477392315106</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>42.6758792389755</v>
+        <v>42.67587923897567</v>
       </c>
       <c r="I17">
-        <v>22.53040423492426</v>
+        <v>22.53040423492427</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>24.50527516131334</v>
       </c>
       <c r="L17">
-        <v>106.7311589275477</v>
+        <v>106.7311589275478</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1023,25 +1023,25 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>7.033446956150494</v>
+        <v>7.033446956150557</v>
       </c>
       <c r="D18">
-        <v>10.27227450682727</v>
+        <v>10.27227450682741</v>
       </c>
       <c r="E18">
-        <v>32.12325724480843</v>
+        <v>32.12325724480841</v>
       </c>
       <c r="F18">
-        <v>56.2447739231509</v>
+        <v>56.24477392315106</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>42.6758792389755</v>
+        <v>42.67587923897567</v>
       </c>
       <c r="I18">
-        <v>22.53040423492426</v>
+        <v>22.53040423492427</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>24.50527516131334</v>
       </c>
       <c r="L18">
-        <v>106.7311589275477</v>
+        <v>106.7311589275478</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1061,25 +1061,25 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>7.033446956150494</v>
+        <v>7.033446956150557</v>
       </c>
       <c r="D19">
-        <v>10.27227450682727</v>
+        <v>10.27227450682741</v>
       </c>
       <c r="E19">
-        <v>32.12325724480843</v>
+        <v>32.12325724480841</v>
       </c>
       <c r="F19">
-        <v>56.2447739231509</v>
+        <v>56.24477392315106</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>42.6758792389755</v>
+        <v>42.67587923897567</v>
       </c>
       <c r="I19">
-        <v>22.53040423492426</v>
+        <v>22.53040423492427</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1088,7 +1088,7 @@
         <v>24.50527516131334</v>
       </c>
       <c r="L19">
-        <v>106.7311589275477</v>
+        <v>106.7311589275478</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>7.033446956150494</v>
+        <v>7.033446956150557</v>
       </c>
       <c r="D20">
-        <v>10.27227450682727</v>
+        <v>10.27227450682741</v>
       </c>
       <c r="E20">
-        <v>32.12325724480843</v>
+        <v>32.12325724480841</v>
       </c>
       <c r="F20">
-        <v>56.2447739231509</v>
+        <v>56.24477392315106</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>42.6758792389755</v>
+        <v>42.67587923897567</v>
       </c>
       <c r="I20">
-        <v>22.53040423492426</v>
+        <v>22.53040423492427</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1126,7 +1126,7 @@
         <v>24.50527516131334</v>
       </c>
       <c r="L20">
-        <v>106.7311589275477</v>
+        <v>106.7311589275478</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1137,25 +1137,25 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>7.033446956150494</v>
+        <v>7.033446956150557</v>
       </c>
       <c r="D21">
-        <v>10.27227450682727</v>
+        <v>10.27227450682741</v>
       </c>
       <c r="E21">
-        <v>32.12325724480843</v>
+        <v>32.12325724480841</v>
       </c>
       <c r="F21">
-        <v>56.2447739231509</v>
+        <v>56.24477392315106</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>42.6758792389755</v>
+        <v>42.67587923897567</v>
       </c>
       <c r="I21">
-        <v>22.53040423492426</v>
+        <v>22.53040423492427</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1164,7 +1164,7 @@
         <v>24.50527516131334</v>
       </c>
       <c r="L21">
-        <v>106.7311589275477</v>
+        <v>106.7311589275478</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1175,25 +1175,25 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>7.033446956150494</v>
+        <v>7.033446956150557</v>
       </c>
       <c r="D22">
-        <v>10.27227450682727</v>
+        <v>10.27227450682741</v>
       </c>
       <c r="E22">
-        <v>32.12325724480843</v>
+        <v>32.12325724480841</v>
       </c>
       <c r="F22">
-        <v>56.2447739231509</v>
+        <v>56.24477392315106</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>42.6758792389755</v>
+        <v>42.67587923897567</v>
       </c>
       <c r="I22">
-        <v>22.53040423492426</v>
+        <v>22.53040423492427</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1202,7 +1202,7 @@
         <v>24.50527516131334</v>
       </c>
       <c r="L22">
-        <v>106.7311589275477</v>
+        <v>106.7311589275478</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1213,25 +1213,25 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>7.033446956150494</v>
+        <v>7.033446956150557</v>
       </c>
       <c r="D23">
-        <v>10.27227450682727</v>
+        <v>10.27227450682741</v>
       </c>
       <c r="E23">
-        <v>32.12325724480843</v>
+        <v>32.12325724480841</v>
       </c>
       <c r="F23">
-        <v>56.2447739231509</v>
+        <v>56.24477392315106</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>42.6758792389755</v>
+        <v>42.67587923897567</v>
       </c>
       <c r="I23">
-        <v>22.53040423492426</v>
+        <v>22.53040423492427</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>24.50527516131334</v>
       </c>
       <c r="L23">
-        <v>106.7311589275477</v>
+        <v>106.7311589275478</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1251,25 +1251,25 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>7.033446956150494</v>
+        <v>7.033446956150557</v>
       </c>
       <c r="D24">
-        <v>10.27227450682727</v>
+        <v>10.27227450682741</v>
       </c>
       <c r="E24">
-        <v>32.12325724480843</v>
+        <v>32.12325724480841</v>
       </c>
       <c r="F24">
-        <v>56.2447739231509</v>
+        <v>56.24477392315106</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>42.6758792389755</v>
+        <v>42.67587923897567</v>
       </c>
       <c r="I24">
-        <v>22.53040423492426</v>
+        <v>22.53040423492427</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>24.50527516131334</v>
       </c>
       <c r="L24">
-        <v>106.7311589275477</v>
+        <v>106.7311589275478</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1289,25 +1289,25 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>7.033446956150494</v>
+        <v>7.033446956150557</v>
       </c>
       <c r="D25">
-        <v>10.27227450682727</v>
+        <v>10.27227450682741</v>
       </c>
       <c r="E25">
-        <v>32.12325724480843</v>
+        <v>32.12325724480841</v>
       </c>
       <c r="F25">
-        <v>56.2447739231509</v>
+        <v>56.24477392315106</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>42.6758792389755</v>
+        <v>42.67587923897567</v>
       </c>
       <c r="I25">
-        <v>22.53040423492426</v>
+        <v>22.53040423492427</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>24.50527516131334</v>
       </c>
       <c r="L25">
-        <v>106.7311589275477</v>
+        <v>106.7311589275478</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_25/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_25/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,8 +406,11 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -415,37 +418,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>7.435553355816755</v>
+        <v>7.276257668590327</v>
       </c>
       <c r="D2">
-        <v>10.94463308654326</v>
+        <v>10.70590205356947</v>
       </c>
       <c r="E2">
-        <v>33.49114720103902</v>
+        <v>33.38646270144855</v>
       </c>
       <c r="F2">
-        <v>60.73103240251504</v>
+        <v>59.53321318291616</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1.73481477456515</v>
       </c>
       <c r="H2">
-        <v>46.03592065994206</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>23.65783296279967</v>
+        <v>45.12556852103442</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>23.52935875162781</v>
       </c>
       <c r="K2">
-        <v>25.61633012337949</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>111.2451208185578</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>25.51183370711667</v>
+      </c>
+      <c r="M2">
+        <v>110.7077572324569</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -453,37 +459,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>6.382836295476489</v>
+        <v>6.248558032089075</v>
       </c>
       <c r="D3">
-        <v>9.200479725028686</v>
+        <v>9.00545623360885</v>
       </c>
       <c r="E3">
-        <v>29.82451710059873</v>
+        <v>29.77344614329773</v>
       </c>
       <c r="F3">
-        <v>49.23851909731452</v>
+        <v>48.37759715527469</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1.82027103354544</v>
       </c>
       <c r="H3">
-        <v>37.41092138918432</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>20.69599349224401</v>
+        <v>36.74347070555258</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>20.62303552491167</v>
       </c>
       <c r="K3">
-        <v>22.66454758087424</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>99.11852919518974</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>22.60933138717333</v>
+      </c>
+      <c r="M3">
+        <v>98.77256694310009</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -491,37 +500,40 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>5.849062971972877</v>
+        <v>5.723693355434157</v>
       </c>
       <c r="D4">
-        <v>8.336086127027407</v>
+        <v>8.15670686940507</v>
       </c>
       <c r="E4">
-        <v>27.85647022413109</v>
+        <v>27.82072002604647</v>
       </c>
       <c r="F4">
-        <v>43.75187601062679</v>
+        <v>43.02452404092407</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1.861996151926919</v>
       </c>
       <c r="H4">
-        <v>33.26606733110952</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>19.17639543387462</v>
+        <v>32.69231563675233</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>19.11970987269897</v>
       </c>
       <c r="K4">
-        <v>21.11071877809263</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>92.58331829570824</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>21.06998107955529</v>
+      </c>
+      <c r="M4">
+        <v>92.29659154107482</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -529,37 +541,40 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>5.644643967883405</v>
+        <v>5.52236187054695</v>
       </c>
       <c r="D5">
-        <v>8.008657004924265</v>
+        <v>7.834754884754958</v>
       </c>
       <c r="E5">
-        <v>27.08250939076675</v>
+        <v>27.05146613401847</v>
       </c>
       <c r="F5">
-        <v>41.72107753747456</v>
+        <v>41.04353121058497</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1.877646199789383</v>
       </c>
       <c r="H5">
-        <v>31.72500490896829</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>18.589920820361</v>
+        <v>31.18571150471712</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>18.53830287830771</v>
       </c>
       <c r="K5">
-        <v>20.50444255098315</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>90.01027401847728</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>20.46822980608983</v>
+      </c>
+      <c r="M5">
+        <v>89.74253024427315</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -567,37 +582,40 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>5.611264418710095</v>
+        <v>5.489474093927036</v>
       </c>
       <c r="D6">
-        <v>7.955382919682863</v>
+        <v>7.782357180262656</v>
       </c>
       <c r="E6">
-        <v>26.9550443040045</v>
+        <v>26.9247205986919</v>
       </c>
       <c r="F6">
-        <v>41.39347049058022</v>
+        <v>40.72407164134763</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>1.880183653871377</v>
       </c>
       <c r="H6">
-        <v>31.47597157801383</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>18.49388867010336</v>
+        <v>30.94229061555309</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>18.44304900403757</v>
       </c>
       <c r="K6">
-        <v>20.40483169167338</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>89.58638861750275</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>20.36931497808393</v>
+      </c>
+      <c r="M6">
+        <v>89.32158831379463</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -605,37 +623,40 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>5.846264139302139</v>
+        <v>5.720937765882003</v>
       </c>
       <c r="D7">
-        <v>8.331589500110175</v>
+        <v>8.152286688384624</v>
       </c>
       <c r="E7">
-        <v>27.84595014328601</v>
+        <v>27.81026810123595</v>
       </c>
       <c r="F7">
-        <v>43.72379359978487</v>
+        <v>42.9971242584083</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1.862211694820853</v>
       </c>
       <c r="H7">
-        <v>33.24478641853497</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>19.16838396596591</v>
+        <v>32.67150876690349</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>19.11177151202464</v>
       </c>
       <c r="K7">
-        <v>21.10246088504549</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>92.54835363299046</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>21.06178838853697</v>
+      </c>
+      <c r="M7">
+        <v>92.26189861469935</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -643,37 +664,40 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>7.033446956150557</v>
+        <v>6.885465626583496</v>
       </c>
       <c r="D8">
-        <v>10.27227450682741</v>
+        <v>10.05333211791199</v>
       </c>
       <c r="E8">
-        <v>32.12325724480841</v>
+        <v>32.04437444474773</v>
       </c>
       <c r="F8">
-        <v>56.24477392315106</v>
+        <v>55.19542653625994</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1.767885757784159</v>
       </c>
       <c r="H8">
-        <v>42.67587923897567</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>22.53040423492427</v>
+        <v>41.87346033302629</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>22.42845707785099</v>
       </c>
       <c r="K8">
-        <v>24.50527516131334</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>106.7311589275478</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>24.42432759497011</v>
+      </c>
+      <c r="M8">
+        <v>106.2838453032874</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -681,37 +705,40 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>7.033446956150557</v>
+        <v>6.885465626583496</v>
       </c>
       <c r="D9">
-        <v>10.27227450682741</v>
+        <v>10.05333211791199</v>
       </c>
       <c r="E9">
-        <v>32.12325724480841</v>
+        <v>32.04437444474773</v>
       </c>
       <c r="F9">
-        <v>56.24477392315106</v>
+        <v>55.19542653625994</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1.767885757784159</v>
       </c>
       <c r="H9">
-        <v>42.67587923897567</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>22.53040423492427</v>
+        <v>41.87346033302629</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>22.42845707785099</v>
       </c>
       <c r="K9">
-        <v>24.50527516131334</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>106.7311589275478</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>24.42432759497011</v>
+      </c>
+      <c r="M9">
+        <v>106.2838453032874</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -719,37 +746,40 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>7.033446956150557</v>
+        <v>6.885465626583496</v>
       </c>
       <c r="D10">
-        <v>10.27227450682741</v>
+        <v>10.05333211791199</v>
       </c>
       <c r="E10">
-        <v>32.12325724480841</v>
+        <v>32.04437444474773</v>
       </c>
       <c r="F10">
-        <v>56.24477392315106</v>
+        <v>55.19542653625994</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1.767885757784159</v>
       </c>
       <c r="H10">
-        <v>42.67587923897567</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>22.53040423492427</v>
+        <v>41.87346033302629</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>22.42845707785099</v>
       </c>
       <c r="K10">
-        <v>24.50527516131334</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>106.7311589275478</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>24.42432759497011</v>
+      </c>
+      <c r="M10">
+        <v>106.2838453032874</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -757,37 +787,40 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>7.033446956150557</v>
+        <v>6.885465626583496</v>
       </c>
       <c r="D11">
-        <v>10.27227450682741</v>
+        <v>10.05333211791199</v>
       </c>
       <c r="E11">
-        <v>32.12325724480841</v>
+        <v>32.04437444474773</v>
       </c>
       <c r="F11">
-        <v>56.24477392315106</v>
+        <v>55.19542653625994</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1.767885757784159</v>
       </c>
       <c r="H11">
-        <v>42.67587923897567</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>22.53040423492427</v>
+        <v>41.87346033302629</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>22.42845707785099</v>
       </c>
       <c r="K11">
-        <v>24.50527516131334</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>106.7311589275478</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>24.42432759497011</v>
+      </c>
+      <c r="M11">
+        <v>106.2838453032874</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -795,37 +828,40 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>7.033446956150557</v>
+        <v>6.885465626583496</v>
       </c>
       <c r="D12">
-        <v>10.27227450682741</v>
+        <v>10.05333211791199</v>
       </c>
       <c r="E12">
-        <v>32.12325724480841</v>
+        <v>32.04437444474773</v>
       </c>
       <c r="F12">
-        <v>56.24477392315106</v>
+        <v>55.19542653625994</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1.767885757784159</v>
       </c>
       <c r="H12">
-        <v>42.67587923897567</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>22.53040423492427</v>
+        <v>41.87346033302629</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>22.42845707785099</v>
       </c>
       <c r="K12">
-        <v>24.50527516131334</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>106.7311589275478</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>24.42432759497011</v>
+      </c>
+      <c r="M12">
+        <v>106.2838453032874</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -833,37 +869,40 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>7.033446956150557</v>
+        <v>6.885465626583496</v>
       </c>
       <c r="D13">
-        <v>10.27227450682741</v>
+        <v>10.05333211791199</v>
       </c>
       <c r="E13">
-        <v>32.12325724480841</v>
+        <v>32.04437444474773</v>
       </c>
       <c r="F13">
-        <v>56.24477392315106</v>
+        <v>55.19542653625994</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1.767885757784159</v>
       </c>
       <c r="H13">
-        <v>42.67587923897567</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>22.53040423492427</v>
+        <v>41.87346033302629</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>22.42845707785099</v>
       </c>
       <c r="K13">
-        <v>24.50527516131334</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>106.7311589275478</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>24.42432759497011</v>
+      </c>
+      <c r="M13">
+        <v>106.2838453032874</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -871,37 +910,40 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>7.033446956150557</v>
+        <v>6.885465626583496</v>
       </c>
       <c r="D14">
-        <v>10.27227450682741</v>
+        <v>10.05333211791199</v>
       </c>
       <c r="E14">
-        <v>32.12325724480841</v>
+        <v>32.04437444474773</v>
       </c>
       <c r="F14">
-        <v>56.24477392315106</v>
+        <v>55.19542653625994</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1.767885757784159</v>
       </c>
       <c r="H14">
-        <v>42.67587923897567</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>22.53040423492427</v>
+        <v>41.87346033302629</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>22.42845707785099</v>
       </c>
       <c r="K14">
-        <v>24.50527516131334</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>106.7311589275478</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>24.42432759497011</v>
+      </c>
+      <c r="M14">
+        <v>106.2838453032874</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -909,37 +951,40 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>7.033446956150557</v>
+        <v>6.885465626583496</v>
       </c>
       <c r="D15">
-        <v>10.27227450682741</v>
+        <v>10.05333211791199</v>
       </c>
       <c r="E15">
-        <v>32.12325724480841</v>
+        <v>32.04437444474773</v>
       </c>
       <c r="F15">
-        <v>56.24477392315106</v>
+        <v>55.19542653625994</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1.767885757784159</v>
       </c>
       <c r="H15">
-        <v>42.67587923897567</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>22.53040423492427</v>
+        <v>41.87346033302629</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>22.42845707785099</v>
       </c>
       <c r="K15">
-        <v>24.50527516131334</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>106.7311589275478</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>24.42432759497011</v>
+      </c>
+      <c r="M15">
+        <v>106.2838453032874</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -947,37 +992,40 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>7.033446956150557</v>
+        <v>6.885465626583496</v>
       </c>
       <c r="D16">
-        <v>10.27227450682741</v>
+        <v>10.05333211791199</v>
       </c>
       <c r="E16">
-        <v>32.12325724480841</v>
+        <v>32.04437444474773</v>
       </c>
       <c r="F16">
-        <v>56.24477392315106</v>
+        <v>55.19542653625994</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>1.767885757784159</v>
       </c>
       <c r="H16">
-        <v>42.67587923897567</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>22.53040423492427</v>
+        <v>41.87346033302629</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>22.42845707785099</v>
       </c>
       <c r="K16">
-        <v>24.50527516131334</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>106.7311589275478</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>24.42432759497011</v>
+      </c>
+      <c r="M16">
+        <v>106.2838453032874</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -985,37 +1033,40 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>7.033446956150557</v>
+        <v>6.885465626583496</v>
       </c>
       <c r="D17">
-        <v>10.27227450682741</v>
+        <v>10.05333211791199</v>
       </c>
       <c r="E17">
-        <v>32.12325724480841</v>
+        <v>32.04437444474773</v>
       </c>
       <c r="F17">
-        <v>56.24477392315106</v>
+        <v>55.19542653625994</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>1.767885757784159</v>
       </c>
       <c r="H17">
-        <v>42.67587923897567</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>22.53040423492427</v>
+        <v>41.87346033302629</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>22.42845707785099</v>
       </c>
       <c r="K17">
-        <v>24.50527516131334</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>106.7311589275478</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>24.42432759497011</v>
+      </c>
+      <c r="M17">
+        <v>106.2838453032874</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1023,37 +1074,40 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>7.033446956150557</v>
+        <v>6.885465626583496</v>
       </c>
       <c r="D18">
-        <v>10.27227450682741</v>
+        <v>10.05333211791199</v>
       </c>
       <c r="E18">
-        <v>32.12325724480841</v>
+        <v>32.04437444474773</v>
       </c>
       <c r="F18">
-        <v>56.24477392315106</v>
+        <v>55.19542653625994</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>1.767885757784159</v>
       </c>
       <c r="H18">
-        <v>42.67587923897567</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>22.53040423492427</v>
+        <v>41.87346033302629</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>22.42845707785099</v>
       </c>
       <c r="K18">
-        <v>24.50527516131334</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>106.7311589275478</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>24.42432759497011</v>
+      </c>
+      <c r="M18">
+        <v>106.2838453032874</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1061,37 +1115,40 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>7.033446956150557</v>
+        <v>6.885465626583496</v>
       </c>
       <c r="D19">
-        <v>10.27227450682741</v>
+        <v>10.05333211791199</v>
       </c>
       <c r="E19">
-        <v>32.12325724480841</v>
+        <v>32.04437444474773</v>
       </c>
       <c r="F19">
-        <v>56.24477392315106</v>
+        <v>55.19542653625994</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>1.767885757784159</v>
       </c>
       <c r="H19">
-        <v>42.67587923897567</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>22.53040423492427</v>
+        <v>41.87346033302629</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>22.42845707785099</v>
       </c>
       <c r="K19">
-        <v>24.50527516131334</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>106.7311589275478</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>24.42432759497011</v>
+      </c>
+      <c r="M19">
+        <v>106.2838453032874</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1099,37 +1156,40 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>7.033446956150557</v>
+        <v>6.885465626583496</v>
       </c>
       <c r="D20">
-        <v>10.27227450682741</v>
+        <v>10.05333211791199</v>
       </c>
       <c r="E20">
-        <v>32.12325724480841</v>
+        <v>32.04437444474773</v>
       </c>
       <c r="F20">
-        <v>56.24477392315106</v>
+        <v>55.19542653625994</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>1.767885757784159</v>
       </c>
       <c r="H20">
-        <v>42.67587923897567</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>22.53040423492427</v>
+        <v>41.87346033302629</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>22.42845707785099</v>
       </c>
       <c r="K20">
-        <v>24.50527516131334</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>106.7311589275478</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>24.42432759497011</v>
+      </c>
+      <c r="M20">
+        <v>106.2838453032874</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1137,37 +1197,40 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>7.033446956150557</v>
+        <v>6.885465626583496</v>
       </c>
       <c r="D21">
-        <v>10.27227450682741</v>
+        <v>10.05333211791199</v>
       </c>
       <c r="E21">
-        <v>32.12325724480841</v>
+        <v>32.04437444474773</v>
       </c>
       <c r="F21">
-        <v>56.24477392315106</v>
+        <v>55.19542653625994</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1.767885757784159</v>
       </c>
       <c r="H21">
-        <v>42.67587923897567</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>22.53040423492427</v>
+        <v>41.87346033302629</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>22.42845707785099</v>
       </c>
       <c r="K21">
-        <v>24.50527516131334</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>106.7311589275478</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>24.42432759497011</v>
+      </c>
+      <c r="M21">
+        <v>106.2838453032874</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1175,37 +1238,40 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>7.033446956150557</v>
+        <v>6.885465626583496</v>
       </c>
       <c r="D22">
-        <v>10.27227450682741</v>
+        <v>10.05333211791199</v>
       </c>
       <c r="E22">
-        <v>32.12325724480841</v>
+        <v>32.04437444474773</v>
       </c>
       <c r="F22">
-        <v>56.24477392315106</v>
+        <v>55.19542653625994</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1.767885757784159</v>
       </c>
       <c r="H22">
-        <v>42.67587923897567</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>22.53040423492427</v>
+        <v>41.87346033302629</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>22.42845707785099</v>
       </c>
       <c r="K22">
-        <v>24.50527516131334</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>106.7311589275478</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>24.42432759497011</v>
+      </c>
+      <c r="M22">
+        <v>106.2838453032874</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1213,37 +1279,40 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>7.033446956150557</v>
+        <v>6.885465626583496</v>
       </c>
       <c r="D23">
-        <v>10.27227450682741</v>
+        <v>10.05333211791199</v>
       </c>
       <c r="E23">
-        <v>32.12325724480841</v>
+        <v>32.04437444474773</v>
       </c>
       <c r="F23">
-        <v>56.24477392315106</v>
+        <v>55.19542653625994</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1.767885757784159</v>
       </c>
       <c r="H23">
-        <v>42.67587923897567</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>22.53040423492427</v>
+        <v>41.87346033302629</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>22.42845707785099</v>
       </c>
       <c r="K23">
-        <v>24.50527516131334</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>106.7311589275478</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>24.42432759497011</v>
+      </c>
+      <c r="M23">
+        <v>106.2838453032874</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1251,37 +1320,40 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>7.033446956150557</v>
+        <v>6.885465626583496</v>
       </c>
       <c r="D24">
-        <v>10.27227450682741</v>
+        <v>10.05333211791199</v>
       </c>
       <c r="E24">
-        <v>32.12325724480841</v>
+        <v>32.04437444474773</v>
       </c>
       <c r="F24">
-        <v>56.24477392315106</v>
+        <v>55.19542653625994</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>1.767885757784159</v>
       </c>
       <c r="H24">
-        <v>42.67587923897567</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>22.53040423492427</v>
+        <v>41.87346033302629</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>22.42845707785099</v>
       </c>
       <c r="K24">
-        <v>24.50527516131334</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>106.7311589275478</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>24.42432759497011</v>
+      </c>
+      <c r="M24">
+        <v>106.2838453032874</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1289,34 +1361,37 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>7.033446956150557</v>
+        <v>6.885465626583496</v>
       </c>
       <c r="D25">
-        <v>10.27227450682741</v>
+        <v>10.05333211791199</v>
       </c>
       <c r="E25">
-        <v>32.12325724480841</v>
+        <v>32.04437444474773</v>
       </c>
       <c r="F25">
-        <v>56.24477392315106</v>
+        <v>55.19542653625994</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>1.767885757784159</v>
       </c>
       <c r="H25">
-        <v>42.67587923897567</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>22.53040423492427</v>
+        <v>41.87346033302629</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>22.42845707785099</v>
       </c>
       <c r="K25">
-        <v>24.50527516131334</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>106.7311589275478</v>
+        <v>24.42432759497011</v>
+      </c>
+      <c r="M25">
+        <v>106.2838453032874</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_25/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_25/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,8 +409,14 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -418,40 +424,46 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>7.276257668590327</v>
+        <v>12.53753457575994</v>
       </c>
       <c r="D2">
-        <v>10.70590205356947</v>
+        <v>7.678699264631477</v>
       </c>
       <c r="E2">
-        <v>33.38646270144855</v>
+        <v>11.6164804601137</v>
       </c>
       <c r="F2">
-        <v>59.53321318291616</v>
+        <v>58.44609543113097</v>
       </c>
       <c r="G2">
-        <v>1.73481477456515</v>
+        <v>1.966418800476623</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>45.12556852103442</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>23.52935875162781</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>61.14158070625106</v>
       </c>
       <c r="L2">
-        <v>25.51183370711667</v>
+        <v>5.966975101659558</v>
       </c>
       <c r="M2">
-        <v>110.7077572324569</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>13.49338418079876</v>
+      </c>
+      <c r="O2">
+        <v>46.81147138880262</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -459,40 +471,46 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>6.248558032089075</v>
+        <v>11.79014932177581</v>
       </c>
       <c r="D3">
-        <v>9.00545623360885</v>
+        <v>7.287005877056919</v>
       </c>
       <c r="E3">
-        <v>29.77344614329773</v>
+        <v>11.01041344495398</v>
       </c>
       <c r="F3">
-        <v>48.37759715527469</v>
+        <v>54.09916102516254</v>
       </c>
       <c r="G3">
-        <v>1.82027103354544</v>
+        <v>1.995476409252422</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>36.74347070555258</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>20.62303552491167</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>56.48589757682144</v>
       </c>
       <c r="L3">
-        <v>22.60933138717333</v>
+        <v>5.829232352119103</v>
       </c>
       <c r="M3">
-        <v>98.77256694310009</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>13.34713104720988</v>
+      </c>
+      <c r="O3">
+        <v>43.44504602717624</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -500,40 +518,46 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>5.723693355434157</v>
+        <v>11.34027308219494</v>
       </c>
       <c r="D4">
-        <v>8.15670686940507</v>
+        <v>7.068990511161838</v>
       </c>
       <c r="E4">
-        <v>27.82072002604647</v>
+        <v>10.6507035467535</v>
       </c>
       <c r="F4">
-        <v>43.02452404092407</v>
+        <v>51.52878562144605</v>
       </c>
       <c r="G4">
-        <v>1.861996151926919</v>
+        <v>2.013046162326035</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>32.69231563675233</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>19.11970987269897</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>53.53862113769799</v>
       </c>
       <c r="L4">
-        <v>21.06998107955529</v>
+        <v>5.753459202172722</v>
       </c>
       <c r="M4">
-        <v>92.29659154107482</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>13.26080016780529</v>
+      </c>
+      <c r="O4">
+        <v>41.46069974855325</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -541,40 +565,46 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>5.52236187054695</v>
+        <v>11.15876627363908</v>
       </c>
       <c r="D5">
-        <v>7.834754884754958</v>
+        <v>6.985170421743205</v>
       </c>
       <c r="E5">
-        <v>27.05146613401847</v>
+        <v>10.50681232060869</v>
       </c>
       <c r="F5">
-        <v>41.04353121058497</v>
+        <v>50.48763697746419</v>
       </c>
       <c r="G5">
-        <v>1.877646199789383</v>
+        <v>2.020173499881125</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>31.18571150471712</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>18.53830287830771</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>52.31271873670209</v>
       </c>
       <c r="L5">
-        <v>20.46822980608983</v>
+        <v>5.724550595757708</v>
       </c>
       <c r="M5">
-        <v>89.74253024427315</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>13.22654668765917</v>
+      </c>
+      <c r="O5">
+        <v>40.65988609415956</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -582,40 +612,46 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>5.489474093927036</v>
+        <v>11.12872744294134</v>
       </c>
       <c r="D6">
-        <v>7.782357180262656</v>
+        <v>6.971539330054849</v>
       </c>
       <c r="E6">
-        <v>26.9247205986919</v>
+        <v>10.48307215930353</v>
       </c>
       <c r="F6">
-        <v>40.72407164134763</v>
+        <v>50.31507336683775</v>
       </c>
       <c r="G6">
-        <v>1.880183653871377</v>
+        <v>2.021355932829328</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>30.94229061555309</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>18.44304900403757</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>52.10759288658152</v>
       </c>
       <c r="L6">
-        <v>20.36931497808393</v>
+        <v>5.71986306752739</v>
       </c>
       <c r="M6">
-        <v>89.32158831379463</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>13.22091630786322</v>
+      </c>
+      <c r="O6">
+        <v>40.52733406169009</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -623,40 +659,46 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>5.720937765882003</v>
+        <v>11.33781830601565</v>
       </c>
       <c r="D7">
-        <v>8.152286688384624</v>
+        <v>7.067840492161806</v>
       </c>
       <c r="E7">
-        <v>27.81026810123595</v>
+        <v>10.6487525342615</v>
       </c>
       <c r="F7">
-        <v>42.9971242584083</v>
+        <v>51.51472175869507</v>
       </c>
       <c r="G7">
-        <v>1.862211694820853</v>
+        <v>2.013142373767002</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>32.67150876690349</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>19.11177151202464</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>53.52219182467019</v>
       </c>
       <c r="L7">
-        <v>21.06178838853697</v>
+        <v>5.753061643094044</v>
       </c>
       <c r="M7">
-        <v>92.26189861469935</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>13.26033439553103</v>
+      </c>
+      <c r="O7">
+        <v>41.44987038387507</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -664,40 +706,46 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>6.885465626583496</v>
+        <v>12.27763337802121</v>
       </c>
       <c r="D8">
-        <v>10.05333211791199</v>
+        <v>7.538552005605916</v>
       </c>
       <c r="E8">
-        <v>32.04437444474773</v>
+        <v>11.4046213656247</v>
       </c>
       <c r="F8">
-        <v>55.19542653625994</v>
+        <v>56.87818990385078</v>
       </c>
       <c r="G8">
-        <v>1.767885757784159</v>
+        <v>1.976518534179987</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>41.87346033302629</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>22.42845707785099</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>59.5529527116622</v>
       </c>
       <c r="L8">
-        <v>24.42432759497011</v>
+        <v>5.917490955058073</v>
       </c>
       <c r="M8">
-        <v>106.2838453032874</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>13.44227290465792</v>
+      </c>
+      <c r="O8">
+        <v>45.59532931401842</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -705,40 +753,46 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>6.885465626583496</v>
+        <v>14.22564669298612</v>
       </c>
       <c r="D9">
-        <v>10.05333211791199</v>
+        <v>8.706203370571396</v>
       </c>
       <c r="E9">
-        <v>32.04437444474773</v>
+        <v>13.01619319396291</v>
       </c>
       <c r="F9">
-        <v>55.19542653625994</v>
+        <v>68.48298113511785</v>
       </c>
       <c r="G9">
-        <v>1.767885757784159</v>
+        <v>1.900329560043275</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>41.87346033302629</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>22.42845707785099</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>70.83673396791956</v>
       </c>
       <c r="L9">
-        <v>24.42432759497011</v>
+        <v>6.324618511196807</v>
       </c>
       <c r="M9">
-        <v>106.2838453032874</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>13.82323402623333</v>
+      </c>
+      <c r="O9">
+        <v>54.9781092088563</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -746,40 +800,46 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>6.885465626583496</v>
+        <v>15.80235804548504</v>
       </c>
       <c r="D10">
-        <v>10.05333211791199</v>
+        <v>10.04773582382487</v>
       </c>
       <c r="E10">
-        <v>32.04437444474773</v>
+        <v>14.35290616611339</v>
       </c>
       <c r="F10">
-        <v>55.19542653625994</v>
+        <v>77.71848983606085</v>
       </c>
       <c r="G10">
-        <v>1.767885757784159</v>
+        <v>1.8369426033376</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>41.87346033302629</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>22.42845707785099</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>79.14467528818511</v>
       </c>
       <c r="L10">
-        <v>24.42432759497011</v>
+        <v>6.707125790761773</v>
       </c>
       <c r="M10">
-        <v>106.2838453032874</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>14.11046552663238</v>
+      </c>
+      <c r="O10">
+        <v>62.49652083052711</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -787,40 +847,46 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>6.885465626583496</v>
+        <v>16.58862890434837</v>
       </c>
       <c r="D11">
-        <v>10.05333211791199</v>
+        <v>10.72873351625374</v>
       </c>
       <c r="E11">
-        <v>32.04437444474773</v>
+        <v>15.02796076812029</v>
       </c>
       <c r="F11">
-        <v>55.19542653625994</v>
+        <v>82.29829300473025</v>
       </c>
       <c r="G11">
-        <v>1.767885757784159</v>
+        <v>1.804486973976317</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>41.87346033302629</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>22.42845707785099</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>83.07648475728256</v>
       </c>
       <c r="L11">
-        <v>24.42432759497011</v>
+        <v>6.92549319815581</v>
       </c>
       <c r="M11">
-        <v>106.2838453032874</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>14.23933359328506</v>
+      </c>
+      <c r="O11">
+        <v>66.22787647673809</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -828,40 +894,46 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>6.885465626583496</v>
+        <v>16.9024921332624</v>
       </c>
       <c r="D12">
-        <v>10.05333211791199</v>
+        <v>11.0031704805701</v>
       </c>
       <c r="E12">
-        <v>32.04437444474773</v>
+        <v>15.33986767006748</v>
       </c>
       <c r="F12">
-        <v>55.19542653625994</v>
+        <v>84.12361529713866</v>
       </c>
       <c r="G12">
-        <v>1.767885757784159</v>
+        <v>1.791352504457064</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>41.87346033302629</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>22.42845707785099</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>84.61127400827813</v>
       </c>
       <c r="L12">
-        <v>24.42432759497011</v>
+        <v>7.067097050808541</v>
       </c>
       <c r="M12">
-        <v>106.2838453032874</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>14.2872811230513</v>
+      </c>
+      <c r="O12">
+        <v>67.71577571260272</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -869,40 +941,46 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>6.885465626583496</v>
+        <v>16.83402802626873</v>
       </c>
       <c r="D13">
-        <v>10.05333211791199</v>
+        <v>10.94317363080314</v>
       </c>
       <c r="E13">
-        <v>32.04437444474773</v>
+        <v>15.27044227123999</v>
       </c>
       <c r="F13">
-        <v>55.19542653625994</v>
+        <v>83.72556103625588</v>
       </c>
       <c r="G13">
-        <v>1.767885757784159</v>
+        <v>1.794226624202488</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>41.87346033302629</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>22.42845707785099</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>84.27810721183232</v>
       </c>
       <c r="L13">
-        <v>24.42432759497011</v>
+        <v>7.036260993141648</v>
       </c>
       <c r="M13">
-        <v>106.2838453032874</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>14.27700768491172</v>
+      </c>
+      <c r="O13">
+        <v>67.39126578296309</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -910,40 +988,46 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>6.885465626583496</v>
+        <v>16.61407528211737</v>
       </c>
       <c r="D14">
-        <v>10.05333211791199</v>
+        <v>10.7509259618633</v>
       </c>
       <c r="E14">
-        <v>32.04437444474773</v>
+        <v>15.04989253471823</v>
       </c>
       <c r="F14">
-        <v>55.19542653625994</v>
+        <v>82.44633095134634</v>
       </c>
       <c r="G14">
-        <v>1.767885757784159</v>
+        <v>1.803426022825284</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>41.87346033302629</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>22.42845707785099</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>83.20163181569421</v>
       </c>
       <c r="L14">
-        <v>24.42432759497011</v>
+        <v>6.936997130671799</v>
       </c>
       <c r="M14">
-        <v>106.2838453032874</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>14.24330051953564</v>
+      </c>
+      <c r="O14">
+        <v>66.34853199749574</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -951,40 +1035,46 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>6.885465626583496</v>
+        <v>16.48170813304082</v>
       </c>
       <c r="D15">
-        <v>10.05333211791199</v>
+        <v>10.63559368556979</v>
       </c>
       <c r="E15">
-        <v>32.04437444474773</v>
+        <v>14.93586431391805</v>
       </c>
       <c r="F15">
-        <v>55.19542653625994</v>
+        <v>81.67615950078519</v>
       </c>
       <c r="G15">
-        <v>1.767885757784159</v>
+        <v>1.808937439136758</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>41.87346033302629</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>22.42845707785099</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>82.54924130839321</v>
       </c>
       <c r="L15">
-        <v>24.42432759497011</v>
+        <v>6.884260490379082</v>
       </c>
       <c r="M15">
-        <v>106.2838453032874</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>14.22251718972904</v>
+      </c>
+      <c r="O15">
+        <v>65.72084939989175</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -992,40 +1082,46 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>6.885465626583496</v>
+        <v>15.75279997812034</v>
       </c>
       <c r="D16">
-        <v>10.05333211791199</v>
+        <v>10.00510627753309</v>
       </c>
       <c r="E16">
-        <v>32.04437444474773</v>
+        <v>14.31053368055024</v>
       </c>
       <c r="F16">
-        <v>55.19542653625994</v>
+        <v>77.42940128130817</v>
       </c>
       <c r="G16">
-        <v>1.767885757784159</v>
+        <v>1.83896781395522</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>41.87346033302629</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>22.42845707785099</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>78.89249165498023</v>
       </c>
       <c r="L16">
-        <v>24.42432759497011</v>
+        <v>6.694478722680702</v>
       </c>
       <c r="M16">
-        <v>106.2838453032874</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>14.10196639909625</v>
+      </c>
+      <c r="O16">
+        <v>62.26106822162372</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1033,40 +1129,46 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>6.885465626583496</v>
+        <v>15.32656150216689</v>
       </c>
       <c r="D17">
-        <v>10.05333211791199</v>
+        <v>9.639793739555166</v>
       </c>
       <c r="E17">
-        <v>32.04437444474773</v>
+        <v>13.94700434093351</v>
       </c>
       <c r="F17">
-        <v>55.19542653625994</v>
+        <v>74.94038820846585</v>
       </c>
       <c r="G17">
-        <v>1.767885757784159</v>
+        <v>1.856292063267969</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>41.87346033302629</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>22.42845707785099</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>76.70090239809888</v>
       </c>
       <c r="L17">
-        <v>24.42432759497011</v>
+        <v>6.587309150017492</v>
       </c>
       <c r="M17">
-        <v>106.2838453032874</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>14.0272506190863</v>
+      </c>
+      <c r="O17">
+        <v>60.23419837019143</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1074,40 +1176,46 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>6.885465626583496</v>
+        <v>15.08738111595632</v>
       </c>
       <c r="D18">
-        <v>10.05333211791199</v>
+        <v>9.435803094563616</v>
       </c>
       <c r="E18">
-        <v>32.04437444474773</v>
+        <v>13.74374900588197</v>
       </c>
       <c r="F18">
-        <v>55.19542653625994</v>
+        <v>73.54136784424368</v>
       </c>
       <c r="G18">
-        <v>1.767885757784159</v>
+        <v>1.865942431086085</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>41.87346033302629</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>22.42845707785099</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>75.45273080474915</v>
       </c>
       <c r="L18">
-        <v>24.42432759497011</v>
+        <v>6.528464386283138</v>
       </c>
       <c r="M18">
-        <v>106.2838453032874</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>13.98415701808206</v>
+      </c>
+      <c r="O18">
+        <v>59.09518819187677</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1115,40 +1223,46 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>6.885465626583496</v>
+        <v>15.00729755936602</v>
       </c>
       <c r="D19">
-        <v>10.05333211791199</v>
+        <v>9.367654927831834</v>
       </c>
       <c r="E19">
-        <v>32.04437444474773</v>
+        <v>13.67581669185685</v>
       </c>
       <c r="F19">
-        <v>55.19542653625994</v>
+        <v>73.072517693207</v>
       </c>
       <c r="G19">
-        <v>1.767885757784159</v>
+        <v>1.869162721259305</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>41.87346033302629</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>22.42845707785099</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>75.03174480267592</v>
       </c>
       <c r="L19">
-        <v>24.42432759497011</v>
+        <v>6.508975108628051</v>
       </c>
       <c r="M19">
-        <v>106.2838453032874</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>13.9695576515086</v>
+      </c>
+      <c r="O19">
+        <v>58.71351097752161</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1156,40 +1270,46 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>6.885465626583496</v>
+        <v>15.37128406977057</v>
       </c>
       <c r="D20">
-        <v>10.05333211791199</v>
+        <v>9.67801435452</v>
       </c>
       <c r="E20">
-        <v>32.04437444474773</v>
+        <v>13.98506935948351</v>
       </c>
       <c r="F20">
-        <v>55.19542653625994</v>
+        <v>75.20178275117911</v>
       </c>
       <c r="G20">
-        <v>1.767885757784159</v>
+        <v>1.85448207529194</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>41.87346033302629</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>22.42845707785099</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>76.93279448414123</v>
       </c>
       <c r="L20">
-        <v>24.42432759497011</v>
+        <v>6.598416650275599</v>
       </c>
       <c r="M20">
-        <v>106.2838453032874</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>14.03521955152819</v>
+      </c>
+      <c r="O20">
+        <v>60.44703127692448</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1197,40 +1317,46 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>6.885465626583496</v>
+        <v>16.67817048289925</v>
       </c>
       <c r="D21">
-        <v>10.05333211791199</v>
+        <v>10.80686949215901</v>
       </c>
       <c r="E21">
-        <v>32.04437444474773</v>
+        <v>15.11217997676382</v>
       </c>
       <c r="F21">
-        <v>55.19542653625994</v>
+        <v>82.81917253765361</v>
       </c>
       <c r="G21">
-        <v>1.767885757784159</v>
+        <v>1.800750620773741</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>41.87346033302629</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>22.42845707785099</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>83.51629313152897</v>
       </c>
       <c r="L21">
-        <v>24.42432759497011</v>
+        <v>6.965954890924015</v>
       </c>
       <c r="M21">
-        <v>106.2838453032874</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>14.25323146284608</v>
+      </c>
+      <c r="O21">
+        <v>66.65242223677835</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1238,40 +1364,46 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>6.885465626583496</v>
+        <v>17.67172111762512</v>
       </c>
       <c r="D22">
-        <v>10.05333211791199</v>
+        <v>11.64875166858097</v>
       </c>
       <c r="E22">
-        <v>32.04437444474773</v>
+        <v>16.07795140221131</v>
       </c>
       <c r="F22">
-        <v>55.19542653625994</v>
+        <v>88.37158043386022</v>
       </c>
       <c r="G22">
-        <v>1.767885757784159</v>
+        <v>1.760332643990383</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>41.87346033302629</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>22.42845707785099</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>88.11482206741951</v>
       </c>
       <c r="L22">
-        <v>24.42432759497011</v>
+        <v>7.394757378394991</v>
       </c>
       <c r="M22">
-        <v>106.2838453032874</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>14.38998556683375</v>
+      </c>
+      <c r="O22">
+        <v>71.18033725166549</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1279,40 +1411,46 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>6.885465626583496</v>
+        <v>17.11284940990867</v>
       </c>
       <c r="D23">
-        <v>10.05333211791199</v>
+        <v>11.18622334038706</v>
       </c>
       <c r="E23">
-        <v>32.04437444474773</v>
+        <v>15.5508025156631</v>
       </c>
       <c r="F23">
-        <v>55.19542653625994</v>
+        <v>85.3346588314427</v>
       </c>
       <c r="G23">
-        <v>1.767885757784159</v>
+        <v>1.782574212089028</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>41.87346033302629</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>22.42845707785099</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>85.61971664175513</v>
       </c>
       <c r="L23">
-        <v>24.42432759497011</v>
+        <v>7.160767662198012</v>
       </c>
       <c r="M23">
-        <v>106.2838453032874</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>14.31788167238099</v>
+      </c>
+      <c r="O23">
+        <v>68.70320519680043</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1320,40 +1458,46 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>6.885465626583496</v>
+        <v>15.35104710525634</v>
       </c>
       <c r="D24">
-        <v>10.05333211791199</v>
+        <v>9.660716428844356</v>
       </c>
       <c r="E24">
-        <v>32.04437444474773</v>
+        <v>13.96784263206193</v>
       </c>
       <c r="F24">
-        <v>55.19542653625994</v>
+        <v>75.08350909238891</v>
       </c>
       <c r="G24">
-        <v>1.767885757784159</v>
+        <v>1.855301314574208</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>41.87346033302629</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>22.42845707785099</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>76.82792083010898</v>
       </c>
       <c r="L24">
-        <v>24.42432759497011</v>
+        <v>6.593386464941554</v>
       </c>
       <c r="M24">
-        <v>106.2838453032874</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>14.03161719191276</v>
+      </c>
+      <c r="O24">
+        <v>60.35072962349953</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1361,37 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>6.885465626583496</v>
+        <v>13.68129930195395</v>
       </c>
       <c r="D25">
-        <v>10.05333211791199</v>
+        <v>8.340459431026238</v>
       </c>
       <c r="E25">
-        <v>32.04437444474773</v>
+        <v>12.56080836131207</v>
       </c>
       <c r="F25">
-        <v>55.19542653625994</v>
+        <v>65.26893946854658</v>
       </c>
       <c r="G25">
-        <v>1.767885757784159</v>
+        <v>1.921786037004293</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>41.87346033302629</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>22.42845707785099</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>67.81464617875032</v>
       </c>
       <c r="L25">
-        <v>24.42432759497011</v>
+        <v>6.202888709826527</v>
       </c>
       <c r="M25">
-        <v>106.2838453032874</v>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>13.71815601445672</v>
+      </c>
+      <c r="O25">
+        <v>52.36284789657199</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_25/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_25/res_line/loading_percent.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>12.53753457575994</v>
+        <v>3.472292469185266</v>
       </c>
       <c r="D2">
-        <v>7.678699264631477</v>
+        <v>2.751022693041123</v>
       </c>
       <c r="E2">
-        <v>11.6164804601137</v>
+        <v>30.18066345456097</v>
       </c>
       <c r="F2">
-        <v>58.44609543113097</v>
+        <v>23.81902666579515</v>
       </c>
       <c r="G2">
-        <v>1.966418800476623</v>
+        <v>34.00551359977586</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>9.919918312782492</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>17.61773945379923</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>61.14158070625106</v>
+        <v>23.0405198844794</v>
       </c>
       <c r="L2">
-        <v>5.966975101659558</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>13.49338418079876</v>
+        <v>10.87770678289385</v>
       </c>
       <c r="O2">
-        <v>46.81147138880262</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>11.79014932177581</v>
+        <v>3.317853263645357</v>
       </c>
       <c r="D3">
-        <v>7.287005877056919</v>
+        <v>2.784458214144646</v>
       </c>
       <c r="E3">
-        <v>11.01041344495398</v>
+        <v>27.94150690600738</v>
       </c>
       <c r="F3">
-        <v>54.09916102516254</v>
+        <v>22.59563020860022</v>
       </c>
       <c r="G3">
-        <v>1.995476409252422</v>
+        <v>31.97646606568894</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>9.684820813167688</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>16.84643335169247</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>56.48589757682144</v>
+        <v>21.50691007400854</v>
       </c>
       <c r="L3">
-        <v>5.829232352119103</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>13.34713104720988</v>
+        <v>11.07985516282207</v>
       </c>
       <c r="O3">
-        <v>43.44504602717624</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>11.34027308219494</v>
+        <v>3.218990259413009</v>
       </c>
       <c r="D4">
-        <v>7.068990511161838</v>
+        <v>2.805415264885688</v>
       </c>
       <c r="E4">
-        <v>10.6507035467535</v>
+        <v>26.50692984648414</v>
       </c>
       <c r="F4">
-        <v>51.52878562144605</v>
+        <v>21.84618350288461</v>
       </c>
       <c r="G4">
-        <v>2.013046162326035</v>
+        <v>30.72272921014763</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>9.551126379809013</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>16.38114983192239</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>53.53862113769799</v>
+        <v>20.51486319004084</v>
       </c>
       <c r="L4">
-        <v>5.753459202172722</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>13.26080016780529</v>
+        <v>11.20698137117599</v>
       </c>
       <c r="O4">
-        <v>41.46069974855325</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>11.15876627363908</v>
+        <v>3.17771625540212</v>
       </c>
       <c r="D5">
-        <v>6.985170421743205</v>
+        <v>2.814062516913313</v>
       </c>
       <c r="E5">
-        <v>10.50681232060869</v>
+        <v>25.9068461969757</v>
       </c>
       <c r="F5">
-        <v>50.48763697746419</v>
+        <v>21.54152510351454</v>
       </c>
       <c r="G5">
-        <v>2.020173499881125</v>
+        <v>30.21029841129223</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>9.499262835826491</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>16.19379516398406</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>52.31271873670209</v>
+        <v>20.09780938589724</v>
       </c>
       <c r="L5">
-        <v>5.724550595757708</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>13.22654668765917</v>
+        <v>11.25956015237107</v>
       </c>
       <c r="O5">
-        <v>40.65988609415956</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>11.12872744294134</v>
+        <v>3.170804094815942</v>
       </c>
       <c r="D6">
-        <v>6.971539330054849</v>
+        <v>2.815504866036139</v>
       </c>
       <c r="E6">
-        <v>10.48307215930353</v>
+        <v>25.80625486419786</v>
       </c>
       <c r="F6">
-        <v>50.31507336683775</v>
+        <v>21.49099240341737</v>
       </c>
       <c r="G6">
-        <v>2.021355932829328</v>
+        <v>30.12513395811235</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>9.490807140637374</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>16.16282636551584</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>52.10759288658152</v>
+        <v>20.02778270441884</v>
       </c>
       <c r="L6">
-        <v>5.71986306752739</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>13.22091630786322</v>
+        <v>11.26833807906991</v>
       </c>
       <c r="O6">
-        <v>40.52733406169009</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>11.33781830601565</v>
+        <v>3.218437576525388</v>
       </c>
       <c r="D7">
-        <v>7.067840492161806</v>
+        <v>2.80553145078775</v>
       </c>
       <c r="E7">
-        <v>10.6487525342615</v>
+        <v>26.49890017954161</v>
       </c>
       <c r="F7">
-        <v>51.51472175869507</v>
+        <v>21.84207128379507</v>
       </c>
       <c r="G7">
-        <v>2.013142373767002</v>
+        <v>30.71582384025346</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>9.550416415191593</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>16.37861374683098</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>53.52219182467019</v>
+        <v>20.50929056489168</v>
       </c>
       <c r="L7">
-        <v>5.753061643094044</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>13.26033439553103</v>
+        <v>11.20768731015154</v>
       </c>
       <c r="O7">
-        <v>41.44987038387507</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>12.27763337802121</v>
+        <v>3.419895130466664</v>
       </c>
       <c r="D8">
-        <v>7.538552005605916</v>
+        <v>2.762461854057107</v>
       </c>
       <c r="E8">
-        <v>11.4046213656247</v>
+        <v>29.42070695525777</v>
       </c>
       <c r="F8">
-        <v>56.87818990385078</v>
+        <v>23.39700828044319</v>
       </c>
       <c r="G8">
-        <v>1.976518534179987</v>
+        <v>33.30776861200114</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>9.836609356898144</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>17.35016024640344</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>59.5529527116622</v>
+        <v>22.52211954422188</v>
       </c>
       <c r="L8">
-        <v>5.917490955058073</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>13.44227290465792</v>
+        <v>10.94679434445876</v>
       </c>
       <c r="O8">
-        <v>45.59532931401842</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>14.22564669298612</v>
+        <v>3.781933378975587</v>
       </c>
       <c r="D9">
-        <v>8.706203370571396</v>
+        <v>2.681498552112941</v>
       </c>
       <c r="E9">
-        <v>13.01619319396291</v>
+        <v>34.69968338437219</v>
       </c>
       <c r="F9">
-        <v>68.48298113511785</v>
+        <v>26.45004652556355</v>
       </c>
       <c r="G9">
-        <v>1.900329560043275</v>
+        <v>38.31538192012231</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>10.48500179761894</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>19.31573689188538</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>70.83673396791956</v>
+        <v>26.07535111772442</v>
       </c>
       <c r="L9">
-        <v>6.324618511196807</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>13.82323402623333</v>
+        <v>10.45823266170799</v>
       </c>
       <c r="O9">
-        <v>54.9781092088563</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>15.80235804548504</v>
+        <v>4.026800735147388</v>
       </c>
       <c r="D10">
-        <v>10.04773582382487</v>
+        <v>2.624468101068101</v>
       </c>
       <c r="E10">
-        <v>14.35290616611339</v>
+        <v>38.34004279811258</v>
       </c>
       <c r="F10">
-        <v>77.71848983606085</v>
+        <v>28.73132077555886</v>
       </c>
       <c r="G10">
-        <v>1.8369426033376</v>
+        <v>42.05161323176797</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>11.01825153406904</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>20.83956322266836</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>79.14467528818511</v>
+        <v>28.45554555583436</v>
       </c>
       <c r="L10">
-        <v>6.707125790761773</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>14.11046552663238</v>
+        <v>10.11223850532437</v>
       </c>
       <c r="O10">
-        <v>62.49652083052711</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>16.58862890434837</v>
+        <v>4.133484347068666</v>
       </c>
       <c r="D11">
-        <v>10.72873351625374</v>
+        <v>2.599198180327213</v>
       </c>
       <c r="E11">
-        <v>15.02796076812029</v>
+        <v>39.95408418422326</v>
       </c>
       <c r="F11">
-        <v>82.29829300473025</v>
+        <v>29.87673795970338</v>
       </c>
       <c r="G11">
-        <v>1.804486973976317</v>
+        <v>43.74877617057262</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>11.27413505416233</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>21.70192532863263</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>83.07648475728256</v>
+        <v>29.49091099216156</v>
       </c>
       <c r="L11">
-        <v>6.92549319815581</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>14.23933359328506</v>
+        <v>9.957423969054966</v>
       </c>
       <c r="O11">
-        <v>66.22787647673809</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>16.9024921332624</v>
+        <v>4.173199692920523</v>
       </c>
       <c r="D12">
-        <v>11.0031704805701</v>
+        <v>2.589744888495106</v>
       </c>
       <c r="E12">
-        <v>15.33986767006748</v>
+        <v>40.56019664355182</v>
       </c>
       <c r="F12">
-        <v>84.12361529713866</v>
+        <v>30.3081846800916</v>
       </c>
       <c r="G12">
-        <v>1.791352504457064</v>
+        <v>44.38943429376049</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>11.37304075708902</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>22.02630657588461</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>84.61127400827813</v>
+        <v>29.87640871647626</v>
       </c>
       <c r="L12">
-        <v>7.067097050808541</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>14.2872811230513</v>
+        <v>9.899154099365127</v>
       </c>
       <c r="O12">
-        <v>67.71577571260272</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>16.83402802626873</v>
+        <v>4.164676746270915</v>
       </c>
       <c r="D13">
-        <v>10.94317363080314</v>
+        <v>2.591775292349288</v>
       </c>
       <c r="E13">
-        <v>15.27044227123999</v>
+        <v>40.42986915000922</v>
       </c>
       <c r="F13">
-        <v>83.72556103625588</v>
+        <v>30.2153616217857</v>
       </c>
       <c r="G13">
-        <v>1.794226624202488</v>
+        <v>44.25153824432019</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>11.35164858897446</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>21.95653726278982</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>84.27810721183232</v>
+        <v>29.79367297727935</v>
       </c>
       <c r="L13">
-        <v>7.036260993141648</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>14.27700768491172</v>
+        <v>9.911688007434174</v>
       </c>
       <c r="O13">
-        <v>67.39126578296309</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>16.61407528211737</v>
+        <v>4.136765474704193</v>
       </c>
       <c r="D14">
-        <v>10.7509259618633</v>
+        <v>2.59841799620824</v>
       </c>
       <c r="E14">
-        <v>15.04989253471823</v>
+        <v>40.0040454694585</v>
       </c>
       <c r="F14">
-        <v>82.44633095134634</v>
+        <v>29.9122774498194</v>
       </c>
       <c r="G14">
-        <v>1.803426022825284</v>
+        <v>43.80152090523322</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>11.28223121973263</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>21.72865428048363</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>83.20163181569421</v>
+        <v>29.52275633759155</v>
       </c>
       <c r="L14">
-        <v>6.936997130671799</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>14.24330051953564</v>
+        <v>9.952623042901147</v>
       </c>
       <c r="O14">
-        <v>66.34853199749574</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>16.48170813304082</v>
+        <v>4.119579877177297</v>
       </c>
       <c r="D15">
-        <v>10.63559368556979</v>
+        <v>2.602502616940368</v>
       </c>
       <c r="E15">
-        <v>14.93586431391805</v>
+        <v>39.74258396246508</v>
       </c>
       <c r="F15">
-        <v>81.67615950078519</v>
+        <v>29.72634032015813</v>
       </c>
       <c r="G15">
-        <v>1.808937439136758</v>
+        <v>43.52562492339685</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>11.23997577478869</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>21.58879468188643</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>82.54924130839321</v>
+        <v>29.35596389282775</v>
       </c>
       <c r="L15">
-        <v>6.884260490379082</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>14.22251718972904</v>
+        <v>9.977742719624421</v>
       </c>
       <c r="O15">
-        <v>65.72084939989175</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>15.75279997812034</v>
+        <v>4.019733351567004</v>
       </c>
       <c r="D16">
-        <v>10.00510627753309</v>
+        <v>2.626134578369496</v>
       </c>
       <c r="E16">
-        <v>14.31053368055024</v>
+        <v>38.23379427011613</v>
       </c>
       <c r="F16">
-        <v>77.42940128130817</v>
+        <v>28.65612616965565</v>
       </c>
       <c r="G16">
-        <v>1.83896781395522</v>
+        <v>41.94038938795369</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>11.00180433268924</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>20.78288578919251</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>78.89249165498023</v>
+        <v>28.38694826627185</v>
       </c>
       <c r="L16">
-        <v>6.694478722680702</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>14.10196639909625</v>
+        <v>10.1224065209301</v>
       </c>
       <c r="O16">
-        <v>62.26106822162372</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>15.32656150216689</v>
+        <v>3.957269331801891</v>
       </c>
       <c r="D17">
-        <v>9.639793739555166</v>
+        <v>2.640816034109413</v>
       </c>
       <c r="E17">
-        <v>13.94700434093351</v>
+        <v>37.29807760317335</v>
       </c>
       <c r="F17">
-        <v>74.94038820846585</v>
+        <v>28.03899662283158</v>
       </c>
       <c r="G17">
-        <v>1.856292063267969</v>
+        <v>40.96378172483989</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>10.85916306205135</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>20.36152973882156</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>76.70090239809888</v>
+        <v>27.78051182614657</v>
       </c>
       <c r="L17">
-        <v>6.587309150017492</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>14.0272506190863</v>
+        <v>10.21180211643928</v>
       </c>
       <c r="O17">
-        <v>60.23419837019143</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>15.08738111595632</v>
+        <v>3.920898730707484</v>
       </c>
       <c r="D18">
-        <v>9.435803094563616</v>
+        <v>2.649322327332587</v>
       </c>
       <c r="E18">
-        <v>13.74374900588197</v>
+        <v>36.75586259013034</v>
       </c>
       <c r="F18">
-        <v>73.54136784424368</v>
+        <v>27.70365359840014</v>
       </c>
       <c r="G18">
-        <v>1.865942431086085</v>
+        <v>40.40041889065494</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>10.77836526782645</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>20.13973606306686</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>75.45273080474915</v>
+        <v>27.42722804080501</v>
       </c>
       <c r="L18">
-        <v>6.528464386283138</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>13.98415701808206</v>
+        <v>10.26346382429345</v>
       </c>
       <c r="O18">
-        <v>59.09518819187677</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>15.00729755936602</v>
+        <v>3.908508443511598</v>
       </c>
       <c r="D19">
-        <v>9.367654927831834</v>
+        <v>2.652212570935508</v>
       </c>
       <c r="E19">
-        <v>13.67581669185685</v>
+        <v>36.57156174945472</v>
       </c>
       <c r="F19">
-        <v>73.072517693207</v>
+        <v>27.59009674377697</v>
       </c>
       <c r="G19">
-        <v>1.869162721259305</v>
+        <v>40.20938096602239</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>10.7512199042105</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>20.06475587817328</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>75.03174480267592</v>
+        <v>27.30683631405782</v>
       </c>
       <c r="L19">
-        <v>6.508975108628051</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>13.9695576515086</v>
+        <v>10.280997957812</v>
       </c>
       <c r="O19">
-        <v>58.71351097752161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>15.37128406977057</v>
+        <v>3.963964633949651</v>
       </c>
       <c r="D20">
-        <v>9.67801435452</v>
+        <v>2.639246644127232</v>
       </c>
       <c r="E20">
-        <v>13.98506935948351</v>
+        <v>37.39809544567763</v>
       </c>
       <c r="F20">
-        <v>75.20178275117911</v>
+        <v>28.1010543699377</v>
       </c>
       <c r="G20">
-        <v>1.85448207529194</v>
+        <v>41.06791078579814</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>10.8742179222578</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>20.40263393589151</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>76.93279448414123</v>
+        <v>27.84552977730617</v>
       </c>
       <c r="L20">
-        <v>6.598416650275599</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>14.03521955152819</v>
+        <v>10.20226069771723</v>
       </c>
       <c r="O20">
-        <v>60.44703127692448</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>16.67817048289925</v>
+        <v>4.144982274964638</v>
       </c>
       <c r="D21">
-        <v>10.80686949215901</v>
+        <v>2.596463542003932</v>
       </c>
       <c r="E21">
-        <v>15.11217997676382</v>
+        <v>40.12925004964816</v>
       </c>
       <c r="F21">
-        <v>82.81917253765361</v>
+        <v>30.00136027556379</v>
       </c>
       <c r="G21">
-        <v>1.800750620773741</v>
+        <v>43.93375244280021</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>11.30256542055965</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>21.79564572739964</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>83.51629313152897</v>
+        <v>29.60250740012512</v>
       </c>
       <c r="L21">
-        <v>6.965954890924015</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>14.25323146284608</v>
+        <v>9.940589915527314</v>
       </c>
       <c r="O21">
-        <v>66.65242223677835</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>17.67172111762512</v>
+        <v>4.259303517987602</v>
       </c>
       <c r="D22">
-        <v>11.64875166858097</v>
+        <v>2.569191950569701</v>
       </c>
       <c r="E22">
-        <v>16.07795140221131</v>
+        <v>41.88510470559898</v>
       </c>
       <c r="F22">
-        <v>88.37158043386022</v>
+        <v>31.25323434918925</v>
       </c>
       <c r="G22">
-        <v>1.760332643990383</v>
+        <v>45.79529186043494</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>11.59428116638166</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>22.73607559069532</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>88.11482206741951</v>
+        <v>30.71262111969463</v>
       </c>
       <c r="L22">
-        <v>7.394757378394991</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>14.38998556683375</v>
+        <v>9.771636022546245</v>
       </c>
       <c r="O22">
-        <v>71.18033725166549</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>17.11284940990867</v>
+        <v>4.198653978627421</v>
       </c>
       <c r="D23">
-        <v>11.18622334038706</v>
+        <v>2.583676017666418</v>
       </c>
       <c r="E23">
-        <v>15.5508025156631</v>
+        <v>40.95028177539737</v>
       </c>
       <c r="F23">
-        <v>85.3346588314427</v>
+        <v>30.586174553101</v>
       </c>
       <c r="G23">
-        <v>1.782574212089028</v>
+        <v>44.80261313031946</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>11.43747316141117</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>22.23519300227139</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>85.61971664175513</v>
+        <v>30.1235360417645</v>
       </c>
       <c r="L23">
-        <v>7.160767662198012</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>14.31788167238099</v>
+        <v>9.861626015118672</v>
       </c>
       <c r="O23">
-        <v>68.70320519680043</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>15.35104710525634</v>
+        <v>3.960939117646639</v>
       </c>
       <c r="D24">
-        <v>9.660716428844356</v>
+        <v>2.639955961969871</v>
       </c>
       <c r="E24">
-        <v>13.96784263206193</v>
+        <v>37.3528907141657</v>
       </c>
       <c r="F24">
-        <v>75.08350909238891</v>
+        <v>28.07299877194526</v>
       </c>
       <c r="G24">
-        <v>1.855301314574208</v>
+        <v>41.02083998021505</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>10.86740786239672</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>20.38404892377888</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>76.82792083010898</v>
+        <v>27.81614961771059</v>
       </c>
       <c r="L24">
-        <v>6.593386464941554</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>14.03161719191276</v>
+        <v>10.20657354030614</v>
       </c>
       <c r="O24">
-        <v>60.35072962349953</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>13.68129930195395</v>
+        <v>3.68764621593843</v>
       </c>
       <c r="D25">
-        <v>8.340459431026238</v>
+        <v>2.703004551619164</v>
       </c>
       <c r="E25">
-        <v>12.56080836131207</v>
+        <v>33.31632108907905</v>
       </c>
       <c r="F25">
-        <v>65.26893946854658</v>
+        <v>25.624758156919</v>
       </c>
       <c r="G25">
-        <v>1.921786037004293</v>
+        <v>36.96987796909595</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>10.29988980188181</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>18.77813239511161</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>67.81464617875032</v>
+        <v>25.15534908228258</v>
       </c>
       <c r="L25">
-        <v>6.202888709826527</v>
+        <v>0</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>13.71815601445672</v>
+        <v>10.58804896681698</v>
       </c>
       <c r="O25">
-        <v>52.36284789657199</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_25/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_25/res_line/loading_percent.xlsx
@@ -424,31 +424,31 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3.472292469185266</v>
+        <v>3.017884162945029</v>
       </c>
       <c r="D2">
-        <v>2.751022693041123</v>
+        <v>4.139476750494767</v>
       </c>
       <c r="E2">
-        <v>30.18066345456097</v>
+        <v>16.51856462408147</v>
       </c>
       <c r="F2">
-        <v>23.81902666579515</v>
+        <v>24.3879733745967</v>
       </c>
       <c r="G2">
-        <v>34.00551359977586</v>
+        <v>29.77040432410453</v>
       </c>
       <c r="H2">
-        <v>9.919918312782492</v>
+        <v>13.90682887576727</v>
       </c>
       <c r="I2">
-        <v>17.61773945379923</v>
+        <v>20.07645073494477</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>23.0405198844794</v>
+        <v>14.35047164136688</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>10.87770678289385</v>
+        <v>16.33815385037597</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,31 +471,31 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>3.317853263645357</v>
+        <v>2.954734837776295</v>
       </c>
       <c r="D3">
-        <v>2.784458214144646</v>
+        <v>4.146859750410423</v>
       </c>
       <c r="E3">
-        <v>27.94150690600738</v>
+        <v>15.57763463566987</v>
       </c>
       <c r="F3">
-        <v>22.59563020860022</v>
+        <v>24.22604852076245</v>
       </c>
       <c r="G3">
-        <v>31.97646606568894</v>
+        <v>29.38688244581259</v>
       </c>
       <c r="H3">
-        <v>9.684820813167688</v>
+        <v>13.92739512934794</v>
       </c>
       <c r="I3">
-        <v>16.84643335169247</v>
+        <v>20.01473977122937</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>21.50691007400854</v>
+        <v>13.74273257443791</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>11.07985516282207</v>
+        <v>16.39742679596634</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,31 +518,31 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>3.218990259413009</v>
+        <v>2.914836956626297</v>
       </c>
       <c r="D4">
-        <v>2.805415264885688</v>
+        <v>4.15166696421736</v>
       </c>
       <c r="E4">
-        <v>26.50692984648414</v>
+        <v>14.97529892405943</v>
       </c>
       <c r="F4">
-        <v>21.84618350288461</v>
+        <v>24.13602020918362</v>
       </c>
       <c r="G4">
-        <v>30.72272921014763</v>
+        <v>29.16393252068305</v>
       </c>
       <c r="H4">
-        <v>9.551126379809013</v>
+        <v>13.94396108935942</v>
       </c>
       <c r="I4">
-        <v>16.38114983192239</v>
+        <v>19.98414529604162</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>20.51486319004084</v>
+        <v>13.35792127793047</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>11.20698137117599</v>
+        <v>16.43572990865561</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,31 +565,31 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>3.17771625540212</v>
+        <v>2.89830868050164</v>
       </c>
       <c r="D5">
-        <v>2.814062516913313</v>
+        <v>4.153695174016311</v>
       </c>
       <c r="E5">
-        <v>25.9068461969757</v>
+        <v>14.72392582456065</v>
       </c>
       <c r="F5">
-        <v>21.54152510351454</v>
+        <v>24.10172461283616</v>
       </c>
       <c r="G5">
-        <v>30.21029841129223</v>
+        <v>29.07634777207079</v>
       </c>
       <c r="H5">
-        <v>9.499262835826491</v>
+        <v>13.95169747574747</v>
       </c>
       <c r="I5">
-        <v>16.19379516398406</v>
+        <v>19.97351609921173</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>20.09780938589724</v>
+        <v>13.19841104092379</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>11.25956015237107</v>
+        <v>16.45182016448745</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,31 +612,31 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>3.170804094815942</v>
+        <v>2.895548287573455</v>
       </c>
       <c r="D6">
-        <v>2.815504866036139</v>
+        <v>4.154036147869497</v>
       </c>
       <c r="E6">
-        <v>25.80625486419786</v>
+        <v>14.68183710889577</v>
       </c>
       <c r="F6">
-        <v>21.49099240341737</v>
+        <v>24.09617506389384</v>
       </c>
       <c r="G6">
-        <v>30.12513395811235</v>
+        <v>29.06200507575881</v>
       </c>
       <c r="H6">
-        <v>9.490807140637374</v>
+        <v>13.95304148141506</v>
       </c>
       <c r="I6">
-        <v>16.16282636551584</v>
+        <v>19.97186220973818</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>20.02778270441884</v>
+        <v>13.17176906400334</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>11.26833807906991</v>
+        <v>16.45452105542148</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,31 +659,31 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>3.218437576525388</v>
+        <v>2.914615124208556</v>
       </c>
       <c r="D7">
-        <v>2.80553145078775</v>
+        <v>4.151694036649781</v>
       </c>
       <c r="E7">
-        <v>26.49890017954161</v>
+        <v>14.97193237820357</v>
       </c>
       <c r="F7">
-        <v>21.84207128379507</v>
+        <v>24.13554796814707</v>
       </c>
       <c r="G7">
-        <v>30.71582384025346</v>
+        <v>29.16273793788506</v>
       </c>
       <c r="H7">
-        <v>9.550416415191593</v>
+        <v>13.94406144079614</v>
       </c>
       <c r="I7">
-        <v>16.37861374683098</v>
+        <v>19.98399450117478</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>20.50929056489168</v>
+        <v>13.35578065338854</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>11.20768731015154</v>
+        <v>16.43594495647426</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,31 +706,31 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>3.419895130466664</v>
+        <v>2.996351154558705</v>
       </c>
       <c r="D8">
-        <v>2.762461854057107</v>
+        <v>4.141965728015183</v>
       </c>
       <c r="E8">
-        <v>29.42070695525777</v>
+        <v>16.19938394351127</v>
       </c>
       <c r="F8">
-        <v>23.39700828044319</v>
+        <v>24.33021114717113</v>
       </c>
       <c r="G8">
-        <v>33.30776861200114</v>
+        <v>29.63563789389922</v>
       </c>
       <c r="H8">
-        <v>9.836609356898144</v>
+        <v>13.91310006190693</v>
       </c>
       <c r="I8">
-        <v>17.35016024640344</v>
+        <v>20.05366141016674</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>22.52211954422188</v>
+        <v>14.1434745193367</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>10.94679434445876</v>
+        <v>16.35819568134732</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,31 +753,31 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>3.781933378975587</v>
+        <v>3.147182123539721</v>
       </c>
       <c r="D9">
-        <v>2.681498552112941</v>
+        <v>4.125048797712806</v>
       </c>
       <c r="E9">
-        <v>34.69968338437219</v>
+        <v>18.49712254302333</v>
       </c>
       <c r="F9">
-        <v>26.45004652556355</v>
+        <v>24.78494356627702</v>
       </c>
       <c r="G9">
-        <v>38.31538192012231</v>
+        <v>30.65683586411075</v>
       </c>
       <c r="H9">
-        <v>10.48500179761894</v>
+        <v>13.88382354759696</v>
       </c>
       <c r="I9">
-        <v>19.31573689188538</v>
+        <v>20.24788801123382</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>26.07535111772442</v>
+        <v>15.58676535659887</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>10.45823266170799</v>
+        <v>16.22081931332749</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,31 +800,31 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>4.026800735147388</v>
+        <v>3.251573021785089</v>
       </c>
       <c r="D10">
-        <v>2.624468101068101</v>
+        <v>4.113918578857382</v>
       </c>
       <c r="E10">
-        <v>38.34004279811258</v>
+        <v>20.14994154960957</v>
       </c>
       <c r="F10">
-        <v>28.73132077555886</v>
+        <v>25.16114363099285</v>
       </c>
       <c r="G10">
-        <v>42.05161323176797</v>
+        <v>31.45629704209972</v>
       </c>
       <c r="H10">
-        <v>11.01825153406904</v>
+        <v>13.88171388906335</v>
       </c>
       <c r="I10">
-        <v>20.83956322266836</v>
+        <v>20.4251490463236</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>28.45554555583436</v>
+        <v>16.57528513106083</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>10.11223850532437</v>
+        <v>16.12900560887659</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,31 +847,31 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>4.133484347068666</v>
+        <v>3.297543512891347</v>
       </c>
       <c r="D11">
-        <v>2.599198180327213</v>
+        <v>4.109133527624878</v>
       </c>
       <c r="E11">
-        <v>39.95408418422326</v>
+        <v>20.8598812657774</v>
       </c>
       <c r="F11">
-        <v>29.87673795970338</v>
+        <v>25.34083206274394</v>
       </c>
       <c r="G11">
-        <v>43.74877617057262</v>
+        <v>31.82886908490165</v>
       </c>
       <c r="H11">
-        <v>11.27413505416233</v>
+        <v>13.88500684192414</v>
       </c>
       <c r="I11">
-        <v>21.70192532863263</v>
+        <v>20.51312086322277</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>29.49091099216156</v>
+        <v>17.00772167374474</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>9.957423969054966</v>
+        <v>16.08919973032446</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,31 +894,31 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>4.173199692920523</v>
+        <v>3.314723716958916</v>
       </c>
       <c r="D12">
-        <v>2.589744888495106</v>
+        <v>4.107361284884194</v>
       </c>
       <c r="E12">
-        <v>40.56019664355182</v>
+        <v>21.12272506861252</v>
       </c>
       <c r="F12">
-        <v>30.3081846800916</v>
+        <v>25.41004984365883</v>
       </c>
       <c r="G12">
-        <v>44.38943429376049</v>
+        <v>31.97107741309905</v>
       </c>
       <c r="H12">
-        <v>11.37304075708902</v>
+        <v>13.8868677469344</v>
       </c>
       <c r="I12">
-        <v>22.02630657588461</v>
+        <v>20.54746971199597</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>29.87640871647626</v>
+        <v>17.16888220257952</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>9.899154099365127</v>
+        <v>16.0744069834789</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,31 +941,31 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>4.164676746270915</v>
+        <v>3.311033930224363</v>
       </c>
       <c r="D13">
-        <v>2.591775292349288</v>
+        <v>4.107741204789379</v>
       </c>
       <c r="E13">
-        <v>40.42986915000922</v>
+        <v>21.06638301903524</v>
       </c>
       <c r="F13">
-        <v>30.2153616217857</v>
+        <v>25.39509128332156</v>
       </c>
       <c r="G13">
-        <v>44.25153824432019</v>
+        <v>31.94040281671155</v>
       </c>
       <c r="H13">
-        <v>11.35164858897446</v>
+        <v>13.88643963012518</v>
       </c>
       <c r="I13">
-        <v>21.95653726278982</v>
+        <v>20.54002633005666</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>29.79367297727935</v>
+        <v>17.13429038924773</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>9.911688007434174</v>
+        <v>16.07758039070477</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,31 +988,31 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>4.136765474704193</v>
+        <v>3.298961556939775</v>
       </c>
       <c r="D14">
-        <v>2.59841799620824</v>
+        <v>4.108986928799855</v>
       </c>
       <c r="E14">
-        <v>40.0040454694585</v>
+        <v>20.88162552958837</v>
       </c>
       <c r="F14">
-        <v>29.9122774498194</v>
+        <v>25.34650346174143</v>
       </c>
       <c r="G14">
-        <v>43.80152090523322</v>
+        <v>31.84054702570746</v>
       </c>
       <c r="H14">
-        <v>11.28223121973263</v>
+        <v>13.88514762363196</v>
       </c>
       <c r="I14">
-        <v>21.72865428048363</v>
+        <v>20.51592612079096</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>29.52275633759155</v>
+        <v>17.02103302189377</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>9.952623042901147</v>
+        <v>16.08797709893876</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,31 +1035,31 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>4.119579877177297</v>
+        <v>3.291536937889226</v>
       </c>
       <c r="D15">
-        <v>2.602502616940368</v>
+        <v>4.109755140653832</v>
       </c>
       <c r="E15">
-        <v>39.74258396246508</v>
+        <v>20.76767655846357</v>
       </c>
       <c r="F15">
-        <v>29.72634032015813</v>
+        <v>25.31689314483618</v>
       </c>
       <c r="G15">
-        <v>43.52562492339685</v>
+        <v>31.77952415374072</v>
       </c>
       <c r="H15">
-        <v>11.23997577478869</v>
+        <v>13.88443624719684</v>
       </c>
       <c r="I15">
-        <v>21.58879468188643</v>
+        <v>20.50129834088937</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>29.35596389282775</v>
+        <v>16.95131874145608</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>9.977742719624421</v>
+        <v>16.09438193027399</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,31 +1082,31 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>4.019733351567004</v>
+        <v>3.248537367859772</v>
       </c>
       <c r="D16">
-        <v>2.626134578369496</v>
+        <v>4.114236868916734</v>
       </c>
       <c r="E16">
-        <v>38.23379427011613</v>
+        <v>20.10270448982859</v>
       </c>
       <c r="F16">
-        <v>28.65612616965565</v>
+        <v>25.14956794000153</v>
       </c>
       <c r="G16">
-        <v>41.94038938795369</v>
+        <v>31.432114253991</v>
       </c>
       <c r="H16">
-        <v>11.00180433268924</v>
+        <v>13.8815844791666</v>
       </c>
       <c r="I16">
-        <v>20.78288578919251</v>
+        <v>20.41954591501934</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>28.38694826627185</v>
+        <v>16.5466672178215</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>10.1224065209301</v>
+        <v>16.13164637813325</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,31 +1129,31 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>3.957269331801891</v>
+        <v>3.221762786736706</v>
       </c>
       <c r="D17">
-        <v>2.640816034109413</v>
+        <v>4.117057324292063</v>
       </c>
       <c r="E17">
-        <v>37.29807760317335</v>
+        <v>19.68405009861495</v>
       </c>
       <c r="F17">
-        <v>28.03899662283158</v>
+        <v>25.04907095728882</v>
       </c>
       <c r="G17">
-        <v>40.96378172483989</v>
+        <v>31.221156822574</v>
       </c>
       <c r="H17">
-        <v>10.85916306205135</v>
+        <v>13.88092610036542</v>
       </c>
       <c r="I17">
-        <v>20.36152973882156</v>
+        <v>20.3712593896936</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>27.78051182614657</v>
+        <v>16.29392282837038</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>10.21180211643928</v>
+        <v>16.15500830959167</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,31 +1176,31 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>3.920898730707484</v>
+        <v>3.206220452334477</v>
       </c>
       <c r="D18">
-        <v>2.649322327332587</v>
+        <v>4.118705769260973</v>
       </c>
       <c r="E18">
-        <v>36.75586259013034</v>
+        <v>19.43930185305858</v>
       </c>
       <c r="F18">
-        <v>27.70365359840014</v>
+        <v>24.99207638949454</v>
       </c>
       <c r="G18">
-        <v>40.40041889065494</v>
+        <v>31.100666127403</v>
       </c>
       <c r="H18">
-        <v>10.77836526782645</v>
+        <v>13.88094758709143</v>
       </c>
       <c r="I18">
-        <v>20.13973606306686</v>
+        <v>20.34417793971826</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>27.42722804080501</v>
+        <v>16.14693326871256</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>10.26346382429345</v>
+        <v>16.16863008040099</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,31 +1223,31 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>3.908508443511598</v>
+        <v>3.200933949570911</v>
       </c>
       <c r="D19">
-        <v>2.652212570935508</v>
+        <v>4.119268410846476</v>
       </c>
       <c r="E19">
-        <v>36.57156174945472</v>
+        <v>19.35575492354128</v>
       </c>
       <c r="F19">
-        <v>27.59009674377697</v>
+        <v>24.97291955674794</v>
       </c>
       <c r="G19">
-        <v>40.20938096602239</v>
+        <v>31.06002015553362</v>
       </c>
       <c r="H19">
-        <v>10.7512199042105</v>
+        <v>13.8810235092749</v>
       </c>
       <c r="I19">
-        <v>20.06475587817328</v>
+        <v>20.33512796037156</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>27.30683631405782</v>
+        <v>16.09689105163423</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>10.280997957812</v>
+        <v>16.17327391702399</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,31 +1270,31 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>3.963964633949651</v>
+        <v>3.224627786537142</v>
       </c>
       <c r="D20">
-        <v>2.639246644127232</v>
+        <v>4.116754372941312</v>
       </c>
       <c r="E20">
-        <v>37.39809544567763</v>
+        <v>19.72902505422268</v>
       </c>
       <c r="F20">
-        <v>28.1010543699377</v>
+        <v>25.05968573996081</v>
       </c>
       <c r="G20">
-        <v>41.06791078579814</v>
+        <v>31.24352712372657</v>
       </c>
       <c r="H20">
-        <v>10.8742179222578</v>
+        <v>13.88095475099778</v>
       </c>
       <c r="I20">
-        <v>20.40263393589151</v>
+        <v>20.37632811601052</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>27.84552977730617</v>
+        <v>16.32099620315579</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>10.20226069771723</v>
+        <v>16.15250229401705</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,31 +1317,31 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>4.144982274964638</v>
+        <v>3.302513761568407</v>
       </c>
       <c r="D21">
-        <v>2.596463542003932</v>
+        <v>4.108619952463638</v>
       </c>
       <c r="E21">
-        <v>40.12925004964816</v>
+        <v>20.93605570335108</v>
       </c>
       <c r="F21">
-        <v>30.00136027556379</v>
+        <v>25.36074349243805</v>
       </c>
       <c r="G21">
-        <v>43.93375244280021</v>
+        <v>31.86984784251155</v>
       </c>
       <c r="H21">
-        <v>11.30256542055965</v>
+        <v>13.88551043868108</v>
       </c>
       <c r="I21">
-        <v>21.79564572739964</v>
+        <v>20.52297698668166</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>29.60250740012512</v>
+        <v>17.05437067290465</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>9.940589915527314</v>
+        <v>16.08491571911965</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,31 +1364,31 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>4.259303517987602</v>
+        <v>3.352084886597015</v>
       </c>
       <c r="D22">
-        <v>2.569191950569701</v>
+        <v>4.10353524263888</v>
       </c>
       <c r="E22">
-        <v>41.88510470559898</v>
+        <v>21.68999307431081</v>
       </c>
       <c r="F22">
-        <v>31.25323434918925</v>
+        <v>25.56431514713199</v>
       </c>
       <c r="G22">
-        <v>45.79529186043494</v>
+        <v>32.28566079229159</v>
       </c>
       <c r="H22">
-        <v>11.59428116638166</v>
+        <v>13.89206706533264</v>
       </c>
       <c r="I22">
-        <v>22.73607559069532</v>
+        <v>20.62484771778037</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>30.71262111969463</v>
+        <v>17.51851355757885</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>9.771636022546245</v>
+        <v>16.04238067411957</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,31 +1411,31 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>4.198653978627421</v>
+        <v>3.325752692966418</v>
       </c>
       <c r="D23">
-        <v>2.583676017666418</v>
+        <v>4.106227932934595</v>
       </c>
       <c r="E23">
-        <v>40.95028177539737</v>
+        <v>21.29078668915639</v>
       </c>
       <c r="F23">
-        <v>30.586174553101</v>
+        <v>25.45506104856651</v>
       </c>
       <c r="G23">
-        <v>44.80261313031946</v>
+        <v>32.06319230524212</v>
       </c>
       <c r="H23">
-        <v>11.43747316141117</v>
+        <v>13.88823951417854</v>
       </c>
       <c r="I23">
-        <v>22.23519300227139</v>
+        <v>20.56993274909302</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>30.1235360417645</v>
+        <v>17.27221212182573</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>9.861626015118672</v>
+        <v>16.0649330128786</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,31 +1458,31 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>3.960939117646639</v>
+        <v>3.223332984327677</v>
       </c>
       <c r="D24">
-        <v>2.639955961969871</v>
+        <v>4.116891253319636</v>
       </c>
       <c r="E24">
-        <v>37.3528907141657</v>
+        <v>19.70870452053538</v>
       </c>
       <c r="F24">
-        <v>28.07299877194526</v>
+        <v>25.05488435505783</v>
       </c>
       <c r="G24">
-        <v>41.02083998021505</v>
+        <v>31.23341103313186</v>
       </c>
       <c r="H24">
-        <v>10.86740786239672</v>
+        <v>13.88094055223631</v>
       </c>
       <c r="I24">
-        <v>20.38404892377888</v>
+        <v>20.37403442801015</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>27.81614961771059</v>
+        <v>16.30876156513839</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>10.20657354030614</v>
+        <v>16.15363466958244</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,31 +1505,31 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>3.68764621593843</v>
+        <v>3.10746169333677</v>
       </c>
       <c r="D25">
-        <v>2.703004551619164</v>
+        <v>4.129395950670899</v>
       </c>
       <c r="E25">
-        <v>33.31632108907905</v>
+        <v>17.85103401436508</v>
       </c>
       <c r="F25">
-        <v>25.624758156919</v>
+        <v>24.65434109178642</v>
       </c>
       <c r="G25">
-        <v>36.96987796909595</v>
+        <v>30.37133471975421</v>
       </c>
       <c r="H25">
-        <v>10.29988980188181</v>
+        <v>13.88835186453732</v>
       </c>
       <c r="I25">
-        <v>18.77813239511161</v>
+        <v>20.18922408677951</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>25.15534908228258</v>
+        <v>15.20830292669651</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>10.58804896681698</v>
+        <v>16.25637644268217</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_25/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_25/res_line/loading_percent.xlsx
@@ -424,31 +424,31 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3.017884162945029</v>
+        <v>3.472292469185185</v>
       </c>
       <c r="D2">
-        <v>4.139476750494767</v>
+        <v>2.751022693040868</v>
       </c>
       <c r="E2">
-        <v>16.51856462408147</v>
+        <v>30.18066345456097</v>
       </c>
       <c r="F2">
-        <v>24.3879733745967</v>
+        <v>23.81902666579514</v>
       </c>
       <c r="G2">
-        <v>29.77040432410453</v>
+        <v>34.00551359977583</v>
       </c>
       <c r="H2">
-        <v>13.90682887576727</v>
+        <v>9.919918312782492</v>
       </c>
       <c r="I2">
-        <v>20.07645073494477</v>
+        <v>17.61773945379921</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>14.35047164136688</v>
+        <v>23.04051988447949</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>16.33815385037597</v>
+        <v>10.87770678289389</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,31 +471,31 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>2.954734837776295</v>
+        <v>3.31785326364537</v>
       </c>
       <c r="D3">
-        <v>4.146859750410423</v>
+        <v>2.784458214144704</v>
       </c>
       <c r="E3">
-        <v>15.57763463566987</v>
+        <v>27.94150690600737</v>
       </c>
       <c r="F3">
-        <v>24.22604852076245</v>
+        <v>22.59563020860017</v>
       </c>
       <c r="G3">
-        <v>29.38688244581259</v>
+        <v>31.97646606568894</v>
       </c>
       <c r="H3">
-        <v>13.92739512934794</v>
+        <v>9.684820813167688</v>
       </c>
       <c r="I3">
-        <v>20.01473977122937</v>
+        <v>16.84643335169245</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>13.74273257443791</v>
+        <v>21.50691007400857</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>16.39742679596634</v>
+        <v>11.07985516282204</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,31 +518,31 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>2.914836956626297</v>
+        <v>3.218990259412934</v>
       </c>
       <c r="D4">
-        <v>4.15166696421736</v>
+        <v>2.805415264885694</v>
       </c>
       <c r="E4">
-        <v>14.97529892405943</v>
+        <v>26.50692984648417</v>
       </c>
       <c r="F4">
-        <v>24.13602020918362</v>
+        <v>21.84618350288461</v>
       </c>
       <c r="G4">
-        <v>29.16393252068305</v>
+        <v>30.72272921014761</v>
       </c>
       <c r="H4">
-        <v>13.94396108935942</v>
+        <v>9.551126379809013</v>
       </c>
       <c r="I4">
-        <v>19.98414529604162</v>
+        <v>16.38114983192239</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>13.35792127793047</v>
+        <v>20.51486319004081</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>16.43572990865561</v>
+        <v>11.206981371176</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,31 +565,31 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>2.89830868050164</v>
+        <v>3.177716255402145</v>
       </c>
       <c r="D5">
-        <v>4.153695174016311</v>
+        <v>2.814062516913372</v>
       </c>
       <c r="E5">
-        <v>14.72392582456065</v>
+        <v>25.90684619697569</v>
       </c>
       <c r="F5">
-        <v>24.10172461283616</v>
+        <v>21.54152510351459</v>
       </c>
       <c r="G5">
-        <v>29.07634777207079</v>
+        <v>30.21029841129229</v>
       </c>
       <c r="H5">
-        <v>13.95169747574747</v>
+        <v>9.499262835826499</v>
       </c>
       <c r="I5">
-        <v>19.97351609921173</v>
+        <v>16.19379516398411</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>13.19841104092379</v>
+        <v>20.09780938589718</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>16.45182016448745</v>
+        <v>11.25956015237104</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,31 +612,31 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>2.895548287573455</v>
+        <v>3.170804094815749</v>
       </c>
       <c r="D6">
-        <v>4.154036147869497</v>
+        <v>2.815504866036139</v>
       </c>
       <c r="E6">
-        <v>14.68183710889577</v>
+        <v>25.8062548641979</v>
       </c>
       <c r="F6">
-        <v>24.09617506389384</v>
+        <v>21.49099240341734</v>
       </c>
       <c r="G6">
-        <v>29.06200507575881</v>
+        <v>30.12513395811234</v>
       </c>
       <c r="H6">
-        <v>13.95304148141506</v>
+        <v>9.490807140637344</v>
       </c>
       <c r="I6">
-        <v>19.97186220973818</v>
+        <v>16.16282636551584</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>13.17176906400334</v>
+        <v>20.0277827044189</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>16.45452105542148</v>
+        <v>11.26833807906991</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,31 +659,31 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>2.914615124208556</v>
+        <v>3.218437576525573</v>
       </c>
       <c r="D7">
-        <v>4.151694036649781</v>
+        <v>2.805531450787615</v>
       </c>
       <c r="E7">
-        <v>14.97193237820357</v>
+        <v>26.49890017954166</v>
       </c>
       <c r="F7">
-        <v>24.13554796814707</v>
+        <v>21.84207128379504</v>
       </c>
       <c r="G7">
-        <v>29.16273793788506</v>
+        <v>30.71582384025345</v>
       </c>
       <c r="H7">
-        <v>13.94406144079614</v>
+        <v>9.550416415191522</v>
       </c>
       <c r="I7">
-        <v>19.98399450117478</v>
+        <v>16.37861374683093</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>13.35578065338854</v>
+        <v>20.50929056489172</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>16.43594495647426</v>
+        <v>11.20768731015154</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,31 +706,31 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>2.996351154558705</v>
+        <v>3.419895130466665</v>
       </c>
       <c r="D8">
-        <v>4.141965728015183</v>
+        <v>2.762461854057236</v>
       </c>
       <c r="E8">
-        <v>16.19938394351127</v>
+        <v>29.42070695525774</v>
       </c>
       <c r="F8">
-        <v>24.33021114717113</v>
+        <v>23.39700828044322</v>
       </c>
       <c r="G8">
-        <v>29.63563789389922</v>
+        <v>33.30776861200116</v>
       </c>
       <c r="H8">
-        <v>13.91310006190693</v>
+        <v>9.83660935689818</v>
       </c>
       <c r="I8">
-        <v>20.05366141016674</v>
+        <v>17.3501602464035</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>14.1434745193367</v>
+        <v>22.52211954422181</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>16.35819568134732</v>
+        <v>10.94679434445876</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,31 +753,31 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>3.147182123539721</v>
+        <v>3.781933378975581</v>
       </c>
       <c r="D9">
-        <v>4.125048797712806</v>
+        <v>2.681498552112898</v>
       </c>
       <c r="E9">
-        <v>18.49712254302333</v>
+        <v>34.69968338437222</v>
       </c>
       <c r="F9">
-        <v>24.78494356627702</v>
+        <v>26.45004652556358</v>
       </c>
       <c r="G9">
-        <v>30.65683586411075</v>
+        <v>38.31538192012232</v>
       </c>
       <c r="H9">
-        <v>13.88382354759696</v>
+        <v>10.48500179761895</v>
       </c>
       <c r="I9">
-        <v>20.24788801123382</v>
+        <v>19.31573689188539</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>15.58676535659887</v>
+        <v>26.07535111772443</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>16.22081931332749</v>
+        <v>10.45823266170799</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,31 +800,31 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>3.251573021785089</v>
+        <v>4.026800735147402</v>
       </c>
       <c r="D10">
-        <v>4.113918578857382</v>
+        <v>2.624468101068232</v>
       </c>
       <c r="E10">
-        <v>20.14994154960957</v>
+        <v>38.34004279811251</v>
       </c>
       <c r="F10">
-        <v>25.16114363099285</v>
+        <v>28.73132077555883</v>
       </c>
       <c r="G10">
-        <v>31.45629704209972</v>
+        <v>42.05161323176784</v>
       </c>
       <c r="H10">
-        <v>13.88171388906335</v>
+        <v>11.01825153406905</v>
       </c>
       <c r="I10">
-        <v>20.4251490463236</v>
+        <v>20.83956322266832</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>16.57528513106083</v>
+        <v>28.45554555583436</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>16.12900560887659</v>
+        <v>10.11223850532443</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,31 +847,31 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>3.297543512891347</v>
+        <v>4.133484347068673</v>
       </c>
       <c r="D11">
-        <v>4.109133527624878</v>
+        <v>2.599198180327208</v>
       </c>
       <c r="E11">
-        <v>20.8598812657774</v>
+        <v>39.9540841842233</v>
       </c>
       <c r="F11">
-        <v>25.34083206274394</v>
+        <v>29.87673795970348</v>
       </c>
       <c r="G11">
-        <v>31.82886908490165</v>
+        <v>43.74877617057277</v>
       </c>
       <c r="H11">
-        <v>13.88500684192414</v>
+        <v>11.2741350541623</v>
       </c>
       <c r="I11">
-        <v>20.51312086322277</v>
+        <v>21.7019253286327</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>17.00772167374474</v>
+        <v>29.49091099216162</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>16.08919973032446</v>
+        <v>9.957423969054869</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,31 +894,31 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>3.314723716958916</v>
+        <v>4.173199692920463</v>
       </c>
       <c r="D12">
-        <v>4.107361284884194</v>
+        <v>2.589744888495096</v>
       </c>
       <c r="E12">
-        <v>21.12272506861252</v>
+        <v>40.56019664355169</v>
       </c>
       <c r="F12">
-        <v>25.41004984365883</v>
+        <v>30.30818468009158</v>
       </c>
       <c r="G12">
-        <v>31.97107741309905</v>
+        <v>44.38943429376047</v>
       </c>
       <c r="H12">
-        <v>13.8868677469344</v>
+        <v>11.37304075708903</v>
       </c>
       <c r="I12">
-        <v>20.54746971199597</v>
+        <v>22.02630657588459</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>17.16888220257952</v>
+        <v>29.87640871647626</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>16.0744069834789</v>
+        <v>9.899154099365132</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,31 +941,31 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>3.311033930224363</v>
+        <v>4.164676746270838</v>
       </c>
       <c r="D13">
-        <v>4.107741204789379</v>
+        <v>2.591775292349398</v>
       </c>
       <c r="E13">
-        <v>21.06638301903524</v>
+        <v>40.42986915000908</v>
       </c>
       <c r="F13">
-        <v>25.39509128332156</v>
+        <v>30.21536162178565</v>
       </c>
       <c r="G13">
-        <v>31.94040281671155</v>
+        <v>44.25153824432009</v>
       </c>
       <c r="H13">
-        <v>13.88643963012518</v>
+        <v>11.35164858897449</v>
       </c>
       <c r="I13">
-        <v>20.54002633005666</v>
+        <v>21.95653726278977</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>17.13429038924773</v>
+        <v>29.79367297727925</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>16.07758039070477</v>
+        <v>9.911688007434174</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,31 +988,31 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>3.298961556939775</v>
+        <v>4.136765474704184</v>
       </c>
       <c r="D14">
-        <v>4.108986928799855</v>
+        <v>2.598417996208407</v>
       </c>
       <c r="E14">
-        <v>20.88162552958837</v>
+        <v>40.0040454694585</v>
       </c>
       <c r="F14">
-        <v>25.34650346174143</v>
+        <v>29.91227744981937</v>
       </c>
       <c r="G14">
-        <v>31.84054702570746</v>
+        <v>43.80152090523314</v>
       </c>
       <c r="H14">
-        <v>13.88514762363196</v>
+        <v>11.28223121973265</v>
       </c>
       <c r="I14">
-        <v>20.51592612079096</v>
+        <v>21.72865428048358</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>17.02103302189377</v>
+        <v>29.52275633759146</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>16.08797709893876</v>
+        <v>9.952623042901147</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,31 +1035,31 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>3.291536937889226</v>
+        <v>4.119579877177337</v>
       </c>
       <c r="D15">
-        <v>4.109755140653832</v>
+        <v>2.602502616940429</v>
       </c>
       <c r="E15">
-        <v>20.76767655846357</v>
+        <v>39.74258396246507</v>
       </c>
       <c r="F15">
-        <v>25.31689314483618</v>
+        <v>29.72634032015807</v>
       </c>
       <c r="G15">
-        <v>31.77952415374072</v>
+        <v>43.52562492339675</v>
       </c>
       <c r="H15">
-        <v>13.88443624719684</v>
+        <v>11.2399757747887</v>
       </c>
       <c r="I15">
-        <v>20.50129834088937</v>
+        <v>21.58879468188634</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>16.95131874145608</v>
+        <v>29.35596389282765</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>16.09438193027399</v>
+        <v>9.977742719624421</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,31 +1082,31 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>3.248537367859772</v>
+        <v>4.019733351566849</v>
       </c>
       <c r="D16">
-        <v>4.114236868916734</v>
+        <v>2.62613457836936</v>
       </c>
       <c r="E16">
-        <v>20.10270448982859</v>
+        <v>38.23379427011621</v>
       </c>
       <c r="F16">
-        <v>25.14956794000153</v>
+        <v>28.6561261696557</v>
       </c>
       <c r="G16">
-        <v>31.432114253991</v>
+        <v>41.94038938795379</v>
       </c>
       <c r="H16">
-        <v>13.8815844791666</v>
+        <v>11.00180433268922</v>
       </c>
       <c r="I16">
-        <v>20.41954591501934</v>
+        <v>20.78288578919257</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>16.5466672178215</v>
+        <v>28.38694826627195</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>16.13164637813325</v>
+        <v>10.12240652093007</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,31 +1129,31 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>3.221762786736706</v>
+        <v>3.957269331801912</v>
       </c>
       <c r="D17">
-        <v>4.117057324292063</v>
+        <v>2.640816034109581</v>
       </c>
       <c r="E17">
-        <v>19.68405009861495</v>
+        <v>37.29807760317351</v>
       </c>
       <c r="F17">
-        <v>25.04907095728882</v>
+        <v>28.03899662283158</v>
       </c>
       <c r="G17">
-        <v>31.221156822574</v>
+        <v>40.96378172484002</v>
       </c>
       <c r="H17">
-        <v>13.88092610036542</v>
+        <v>10.85916306205132</v>
       </c>
       <c r="I17">
-        <v>20.3712593896936</v>
+        <v>20.36152973882155</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>16.29392282837038</v>
+        <v>27.78051182614663</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>16.15500830959167</v>
+        <v>10.21180211643922</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,31 +1176,31 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>3.206220452334477</v>
+        <v>3.920898730707455</v>
       </c>
       <c r="D18">
-        <v>4.118705769260973</v>
+        <v>2.649322327332653</v>
       </c>
       <c r="E18">
-        <v>19.43930185305858</v>
+        <v>36.75586259013039</v>
       </c>
       <c r="F18">
-        <v>24.99207638949454</v>
+        <v>27.70365359840016</v>
       </c>
       <c r="G18">
-        <v>31.100666127403</v>
+        <v>40.40041889065507</v>
       </c>
       <c r="H18">
-        <v>13.88094758709143</v>
+        <v>10.77836526782642</v>
       </c>
       <c r="I18">
-        <v>20.34417793971826</v>
+        <v>20.13973606306683</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>16.14693326871256</v>
+        <v>27.42722804080513</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>16.16863008040099</v>
+        <v>10.26346382429345</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,31 +1223,31 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>3.200933949570911</v>
+        <v>3.908508443511459</v>
       </c>
       <c r="D19">
-        <v>4.119268410846476</v>
+        <v>2.652212570935512</v>
       </c>
       <c r="E19">
-        <v>19.35575492354128</v>
+        <v>36.57156174945464</v>
       </c>
       <c r="F19">
-        <v>24.97291955674794</v>
+        <v>27.59009674377693</v>
       </c>
       <c r="G19">
-        <v>31.06002015553362</v>
+        <v>40.20938096602226</v>
       </c>
       <c r="H19">
-        <v>13.8810235092749</v>
+        <v>10.75121990421052</v>
       </c>
       <c r="I19">
-        <v>20.33512796037156</v>
+        <v>20.06475587817327</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>16.09689105163423</v>
+        <v>27.30683631405774</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>16.17327391702399</v>
+        <v>10.28099795781201</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,31 +1270,31 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>3.224627786537142</v>
+        <v>3.96396463394973</v>
       </c>
       <c r="D20">
-        <v>4.116754372941312</v>
+        <v>2.63924664412717</v>
       </c>
       <c r="E20">
-        <v>19.72902505422268</v>
+        <v>37.3980954456776</v>
       </c>
       <c r="F20">
-        <v>25.05968573996081</v>
+        <v>28.10105436993768</v>
       </c>
       <c r="G20">
-        <v>31.24352712372657</v>
+        <v>41.06791078579808</v>
       </c>
       <c r="H20">
-        <v>13.88095475099778</v>
+        <v>10.87421792225783</v>
       </c>
       <c r="I20">
-        <v>20.37632811601052</v>
+        <v>20.40263393589149</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>16.32099620315579</v>
+        <v>27.84552977730615</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>16.15250229401705</v>
+        <v>10.20226069771722</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,31 +1317,31 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>3.302513761568407</v>
+        <v>4.144982274964584</v>
       </c>
       <c r="D21">
-        <v>4.108619952463638</v>
+        <v>2.596463542003936</v>
       </c>
       <c r="E21">
-        <v>20.93605570335108</v>
+        <v>40.12925004964821</v>
       </c>
       <c r="F21">
-        <v>25.36074349243805</v>
+        <v>30.00136027556394</v>
       </c>
       <c r="G21">
-        <v>31.86984784251155</v>
+        <v>43.9337524428004</v>
       </c>
       <c r="H21">
-        <v>13.88551043868108</v>
+        <v>11.30256542055965</v>
       </c>
       <c r="I21">
-        <v>20.52297698668166</v>
+        <v>21.79564572739975</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>17.05437067290465</v>
+        <v>29.60250740012524</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>16.08491571911965</v>
+        <v>9.94058991552725</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,31 +1364,31 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>3.352084886597015</v>
+        <v>4.259303517987536</v>
       </c>
       <c r="D22">
-        <v>4.10353524263888</v>
+        <v>2.569191950569643</v>
       </c>
       <c r="E22">
-        <v>21.68999307431081</v>
+        <v>41.88510470559898</v>
       </c>
       <c r="F22">
-        <v>25.56431514713199</v>
+        <v>31.25323434918926</v>
       </c>
       <c r="G22">
-        <v>32.28566079229159</v>
+        <v>45.79529186043491</v>
       </c>
       <c r="H22">
-        <v>13.89206706533264</v>
+        <v>11.59428116638164</v>
       </c>
       <c r="I22">
-        <v>20.62484771778037</v>
+        <v>22.73607559069533</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>17.51851355757885</v>
+        <v>30.71262111969467</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>16.04238067411957</v>
+        <v>9.771636022546245</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,31 +1411,31 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>3.325752692966418</v>
+        <v>4.198653978627435</v>
       </c>
       <c r="D23">
-        <v>4.106227932934595</v>
+        <v>2.583676017666418</v>
       </c>
       <c r="E23">
-        <v>21.29078668915639</v>
+        <v>40.95028177539726</v>
       </c>
       <c r="F23">
-        <v>25.45506104856651</v>
+        <v>30.586174553101</v>
       </c>
       <c r="G23">
-        <v>32.06319230524212</v>
+        <v>44.80261313031944</v>
       </c>
       <c r="H23">
-        <v>13.88823951417854</v>
+        <v>11.43747316141116</v>
       </c>
       <c r="I23">
-        <v>20.56993274909302</v>
+        <v>22.23519300227139</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>17.27221212182573</v>
+        <v>30.12353604176454</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>16.0649330128786</v>
+        <v>9.861626015118706</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,31 +1458,31 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>3.223332984327677</v>
+        <v>3.960939117646668</v>
       </c>
       <c r="D24">
-        <v>4.116891253319636</v>
+        <v>2.639955961969871</v>
       </c>
       <c r="E24">
-        <v>19.70870452053538</v>
+        <v>37.3528907141658</v>
       </c>
       <c r="F24">
-        <v>25.05488435505783</v>
+        <v>28.07299877194523</v>
       </c>
       <c r="G24">
-        <v>31.23341103313186</v>
+        <v>41.02083998021502</v>
       </c>
       <c r="H24">
-        <v>13.88094055223631</v>
+        <v>10.86740786239668</v>
       </c>
       <c r="I24">
-        <v>20.37403442801015</v>
+        <v>20.38404892377886</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>16.30876156513839</v>
+        <v>27.81614961771059</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>16.15363466958244</v>
+        <v>10.20657354030614</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,31 +1505,31 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>3.10746169333677</v>
+        <v>3.687646215938416</v>
       </c>
       <c r="D25">
-        <v>4.129395950670899</v>
+        <v>2.70300455161923</v>
       </c>
       <c r="E25">
-        <v>17.85103401436508</v>
+        <v>33.316321089079</v>
       </c>
       <c r="F25">
-        <v>24.65434109178642</v>
+        <v>25.62475815691902</v>
       </c>
       <c r="G25">
-        <v>30.37133471975421</v>
+        <v>36.96987796909597</v>
       </c>
       <c r="H25">
-        <v>13.88835186453732</v>
+        <v>10.29988980188182</v>
       </c>
       <c r="I25">
-        <v>20.18922408677951</v>
+        <v>18.77813239511162</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>15.20830292669651</v>
+        <v>25.15534908228253</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>16.25637644268217</v>
+        <v>10.58804896681697</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_25/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_25/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,8 +415,14 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -424,46 +430,52 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3.472292469185185</v>
+        <v>11.15516681105269</v>
       </c>
       <c r="D2">
-        <v>2.751022693040868</v>
+        <v>4.834222511177281</v>
       </c>
       <c r="E2">
-        <v>30.18066345456097</v>
+        <v>12.08003756035451</v>
       </c>
       <c r="F2">
-        <v>23.81902666579514</v>
+        <v>18.22910380962027</v>
       </c>
       <c r="G2">
-        <v>34.00551359977583</v>
+        <v>22.98180257451985</v>
       </c>
       <c r="H2">
-        <v>9.919918312782492</v>
+        <v>1.882843145631876</v>
       </c>
       <c r="I2">
-        <v>17.61773945379921</v>
+        <v>2.997812814646108</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>8.866102732447619</v>
       </c>
       <c r="K2">
-        <v>23.04051988447949</v>
+        <v>16.66046376328979</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>18.939186802699</v>
       </c>
       <c r="N2">
-        <v>10.87770678289389</v>
+        <v>7.118630595783572</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>12.74939520819975</v>
+      </c>
+      <c r="Q2">
+        <v>14.61582338241116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -471,46 +483,52 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>3.31785326364537</v>
+        <v>10.67508631324971</v>
       </c>
       <c r="D3">
-        <v>2.784458214144704</v>
+        <v>4.650186523625412</v>
       </c>
       <c r="E3">
-        <v>27.94150690600737</v>
+        <v>11.58044662523029</v>
       </c>
       <c r="F3">
-        <v>22.59563020860017</v>
+        <v>17.75561257333188</v>
       </c>
       <c r="G3">
-        <v>31.97646606568894</v>
+        <v>22.32601384796872</v>
       </c>
       <c r="H3">
-        <v>9.684820813167688</v>
+        <v>1.688155771113143</v>
       </c>
       <c r="I3">
-        <v>16.84643335169245</v>
+        <v>2.835883752620898</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>8.840615288338066</v>
       </c>
       <c r="K3">
-        <v>21.50691007400857</v>
+        <v>16.352520343129</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>17.74558416684612</v>
       </c>
       <c r="N3">
-        <v>11.07985516282204</v>
+        <v>6.913333961455119</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>12.70614343812607</v>
+      </c>
+      <c r="Q3">
+        <v>14.44470454606839</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -518,46 +536,52 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>3.218990259412934</v>
+        <v>10.36384482492176</v>
       </c>
       <c r="D4">
-        <v>2.805415264885694</v>
+        <v>4.532860321763664</v>
       </c>
       <c r="E4">
-        <v>26.50692984648417</v>
+        <v>11.26032447249169</v>
       </c>
       <c r="F4">
-        <v>21.84618350288461</v>
+        <v>17.46647668815786</v>
       </c>
       <c r="G4">
-        <v>30.72272921014761</v>
+        <v>21.92380542666842</v>
       </c>
       <c r="H4">
-        <v>9.551126379809013</v>
+        <v>1.563932967445931</v>
       </c>
       <c r="I4">
-        <v>16.38114983192239</v>
+        <v>2.733043448594504</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>8.827690561496802</v>
       </c>
       <c r="K4">
-        <v>20.51486319004081</v>
+        <v>16.1630085341948</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>16.96781785038869</v>
       </c>
       <c r="N4">
-        <v>11.206981371176</v>
+        <v>6.784059478821533</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>12.68236915389114</v>
+      </c>
+      <c r="Q4">
+        <v>14.34415687974543</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -565,46 +589,52 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>3.177716255402145</v>
+        <v>10.22185059612883</v>
       </c>
       <c r="D5">
-        <v>2.814062516913372</v>
+        <v>4.485185624531177</v>
       </c>
       <c r="E5">
-        <v>25.90684619697569</v>
+        <v>11.12268935609749</v>
       </c>
       <c r="F5">
-        <v>21.54152510351459</v>
+        <v>17.34306702323976</v>
       </c>
       <c r="G5">
-        <v>30.21029841129229</v>
+        <v>21.74908146012589</v>
       </c>
       <c r="H5">
-        <v>9.499262835826499</v>
+        <v>1.610616868918832</v>
       </c>
       <c r="I5">
-        <v>16.19379516398411</v>
+        <v>2.690708122979518</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>8.821360367570353</v>
       </c>
       <c r="K5">
-        <v>20.09780938589718</v>
+        <v>16.07859222844825</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>16.63666191348074</v>
       </c>
       <c r="N5">
-        <v>11.25956015237104</v>
+        <v>6.731155322176479</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>12.67434989430352</v>
+      </c>
+      <c r="Q5">
+        <v>14.29983548785707</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -612,46 +642,52 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>3.170804094815749</v>
+        <v>10.18443514340994</v>
       </c>
       <c r="D6">
-        <v>2.815504866036139</v>
+        <v>4.47866775713464</v>
       </c>
       <c r="E6">
-        <v>25.8062548641979</v>
+        <v>11.09483144271197</v>
       </c>
       <c r="F6">
-        <v>21.49099240341734</v>
+        <v>17.31511442786647</v>
       </c>
       <c r="G6">
-        <v>30.12513395811234</v>
+        <v>21.70647372704899</v>
       </c>
       <c r="H6">
-        <v>9.490807140637344</v>
+        <v>1.620076684353254</v>
       </c>
       <c r="I6">
-        <v>16.16282636551584</v>
+        <v>2.68436893292786</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>8.818229227081318</v>
       </c>
       <c r="K6">
-        <v>20.0277827044189</v>
+        <v>16.05582818212696</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>16.5773976951455</v>
       </c>
       <c r="N6">
-        <v>11.26833807906991</v>
+        <v>6.722990581451853</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>12.67426110121946</v>
+      </c>
+      <c r="Q6">
+        <v>14.28705755642518</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -659,46 +695,52 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>3.218437576525573</v>
+        <v>10.32533993292516</v>
       </c>
       <c r="D7">
-        <v>2.805531450787615</v>
+        <v>4.53617486701128</v>
       </c>
       <c r="E7">
-        <v>26.49890017954166</v>
+        <v>11.24553808040289</v>
       </c>
       <c r="F7">
-        <v>21.84207128379504</v>
+        <v>17.44449893942992</v>
       </c>
       <c r="G7">
-        <v>30.71582384025345</v>
+        <v>21.88457841057886</v>
       </c>
       <c r="H7">
-        <v>9.550416415191522</v>
+        <v>1.561918382908543</v>
       </c>
       <c r="I7">
-        <v>16.37861374683093</v>
+        <v>2.73413090656303</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>8.821823026519084</v>
       </c>
       <c r="K7">
-        <v>20.50929056489172</v>
+        <v>16.13811521570229</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>16.95379393692647</v>
       </c>
       <c r="N7">
-        <v>11.20768731015154</v>
+        <v>6.785156283207029</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>12.68557865005577</v>
+      </c>
+      <c r="Q7">
+        <v>14.32862408881927</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -706,46 +748,52 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>3.419895130466665</v>
+        <v>10.94708486633716</v>
       </c>
       <c r="D8">
-        <v>2.762461854057236</v>
+        <v>4.776738700579709</v>
       </c>
       <c r="E8">
-        <v>29.42070695525774</v>
+        <v>11.89436179340863</v>
       </c>
       <c r="F8">
-        <v>23.39700828044322</v>
+        <v>18.03952870547672</v>
       </c>
       <c r="G8">
-        <v>33.30776861200116</v>
+        <v>22.70852027873018</v>
       </c>
       <c r="H8">
-        <v>9.83660935689818</v>
+        <v>1.8150261962132</v>
       </c>
       <c r="I8">
-        <v>17.3501602464035</v>
+        <v>2.944299109249304</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>8.849145616843582</v>
       </c>
       <c r="K8">
-        <v>22.52211954422181</v>
+        <v>16.52365548733762</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>18.52516631778152</v>
       </c>
       <c r="N8">
-        <v>10.94679434445876</v>
+        <v>7.050888019788901</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>12.73845048017698</v>
+      </c>
+      <c r="Q8">
+        <v>14.53641650142919</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -753,46 +801,52 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>3.781933378975581</v>
+        <v>12.09285168426832</v>
       </c>
       <c r="D9">
-        <v>2.681498552112898</v>
+        <v>5.206238057132587</v>
       </c>
       <c r="E9">
-        <v>34.69968338437222</v>
+        <v>13.07796289037027</v>
       </c>
       <c r="F9">
-        <v>26.45004652556358</v>
+        <v>19.24777880850971</v>
       </c>
       <c r="G9">
-        <v>38.31538192012232</v>
+        <v>24.38257896889001</v>
       </c>
       <c r="H9">
-        <v>10.48500179761895</v>
+        <v>2.277029787571821</v>
       </c>
       <c r="I9">
-        <v>19.31573689188539</v>
+        <v>3.328203278961278</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>8.935266158800291</v>
       </c>
       <c r="K9">
-        <v>26.07535111772443</v>
+        <v>17.31450416812144</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>21.26570633652984</v>
       </c>
       <c r="N9">
-        <v>10.45823266170799</v>
+        <v>7.541522953853737</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>12.8584556143717</v>
+      </c>
+      <c r="Q9">
+        <v>15.0057944170317</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -800,46 +854,52 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>4.026800735147402</v>
+        <v>12.72462650908522</v>
       </c>
       <c r="D10">
-        <v>2.624468101068232</v>
+        <v>5.517970550550077</v>
       </c>
       <c r="E10">
-        <v>38.34004279811251</v>
+        <v>13.66421647342875</v>
       </c>
       <c r="F10">
-        <v>28.73132077555883</v>
+        <v>20.03540505266193</v>
       </c>
       <c r="G10">
-        <v>42.05161323176784</v>
+        <v>25.42620962532966</v>
       </c>
       <c r="H10">
-        <v>11.01825153406905</v>
+        <v>2.582342882907136</v>
       </c>
       <c r="I10">
-        <v>20.83956322266832</v>
+        <v>3.58881408783071</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>8.983212549567899</v>
       </c>
       <c r="K10">
-        <v>28.45554555583436</v>
+        <v>17.78255460179937</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>23.02194653555327</v>
       </c>
       <c r="N10">
-        <v>10.11223850532443</v>
+        <v>7.767613023249434</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>12.98134460573402</v>
+      </c>
+      <c r="Q10">
+        <v>15.29718626895251</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -847,46 +907,52 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>4.133484347068673</v>
+        <v>12.02385837598827</v>
       </c>
       <c r="D11">
-        <v>2.599198180327208</v>
+        <v>5.811554691940626</v>
       </c>
       <c r="E11">
-        <v>39.9540841842233</v>
+        <v>12.17035214118006</v>
       </c>
       <c r="F11">
-        <v>29.87673795970348</v>
+        <v>19.6074689634928</v>
       </c>
       <c r="G11">
-        <v>43.74877617057277</v>
+        <v>24.49178259301824</v>
       </c>
       <c r="H11">
-        <v>11.2741350541623</v>
+        <v>3.301160011737543</v>
       </c>
       <c r="I11">
-        <v>21.7019253286327</v>
+        <v>3.652065037894834</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>8.763922407790648</v>
       </c>
       <c r="K11">
-        <v>29.49091099216162</v>
+        <v>17.145377573403</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>23.4496514238087</v>
       </c>
       <c r="N11">
-        <v>9.957423969054869</v>
+        <v>6.914140010461763</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>13.21326532412143</v>
+      </c>
+      <c r="Q11">
+        <v>14.82298067355313</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -894,46 +960,52 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>4.173199692920463</v>
+        <v>11.35483066910842</v>
       </c>
       <c r="D12">
-        <v>2.589744888495096</v>
+        <v>5.993452327052285</v>
       </c>
       <c r="E12">
-        <v>40.56019664355169</v>
+        <v>10.86205174160581</v>
       </c>
       <c r="F12">
-        <v>30.30818468009158</v>
+        <v>19.09477659109837</v>
       </c>
       <c r="G12">
-        <v>44.38943429376047</v>
+        <v>23.51262075699975</v>
       </c>
       <c r="H12">
-        <v>11.37304075708903</v>
+        <v>4.440954984120158</v>
       </c>
       <c r="I12">
-        <v>22.02630657588459</v>
+        <v>3.653470748787405</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>8.573105611484703</v>
       </c>
       <c r="K12">
-        <v>29.87640871647626</v>
+        <v>16.53471312216278</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>23.4639321408298</v>
       </c>
       <c r="N12">
-        <v>9.899154099365132</v>
+        <v>6.222970379235104</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>13.3835650507078</v>
+      </c>
+      <c r="Q12">
+        <v>14.3727940577191</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -941,46 +1013,52 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>4.164676746270838</v>
+        <v>10.61085012177598</v>
       </c>
       <c r="D13">
-        <v>2.591775292349398</v>
+        <v>6.109017806260103</v>
       </c>
       <c r="E13">
-        <v>40.42986915000908</v>
+        <v>9.604720823110325</v>
       </c>
       <c r="F13">
-        <v>30.21536162178565</v>
+        <v>18.44591159872079</v>
       </c>
       <c r="G13">
-        <v>44.25153824432009</v>
+        <v>22.36736190619962</v>
       </c>
       <c r="H13">
-        <v>11.35164858897449</v>
+        <v>5.693529369223306</v>
       </c>
       <c r="I13">
-        <v>21.95653726278977</v>
+        <v>3.609544421011333</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>8.383225306532283</v>
       </c>
       <c r="K13">
-        <v>29.79367297727925</v>
+        <v>15.86721841277626</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>23.15105589852365</v>
       </c>
       <c r="N13">
-        <v>9.911688007434174</v>
+        <v>5.640218540853779</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>13.51899793862131</v>
+      </c>
+      <c r="Q13">
+        <v>13.88733660176827</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -988,46 +1066,52 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>4.136765474704184</v>
+        <v>10.04555675365876</v>
       </c>
       <c r="D14">
-        <v>2.598417996208407</v>
+        <v>6.16217098429876</v>
       </c>
       <c r="E14">
-        <v>40.0040454694585</v>
+        <v>8.776168894184222</v>
       </c>
       <c r="F14">
-        <v>29.91227744981937</v>
+        <v>17.91997409464668</v>
       </c>
       <c r="G14">
-        <v>43.80152090523314</v>
+        <v>21.47263837846754</v>
       </c>
       <c r="H14">
-        <v>11.28223121973265</v>
+        <v>6.608592935287246</v>
       </c>
       <c r="I14">
-        <v>21.72865428048358</v>
+        <v>3.559229402390951</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>8.249777971139441</v>
       </c>
       <c r="K14">
-        <v>29.52275633759146</v>
+        <v>15.3673909990301</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>22.77750770709657</v>
       </c>
       <c r="N14">
-        <v>9.952623042901147</v>
+        <v>5.317740114136805</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>13.59894511337146</v>
+      </c>
+      <c r="Q14">
+        <v>13.52738357758708</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1035,46 +1119,52 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>4.119579877177337</v>
+        <v>9.879560423347753</v>
       </c>
       <c r="D15">
-        <v>2.602502616940429</v>
+        <v>6.162139377893083</v>
       </c>
       <c r="E15">
-        <v>39.74258396246507</v>
+        <v>8.576046576989402</v>
       </c>
       <c r="F15">
-        <v>29.72634032015807</v>
+        <v>17.75681647513278</v>
       </c>
       <c r="G15">
-        <v>43.52562492339675</v>
+        <v>21.20818568135776</v>
       </c>
       <c r="H15">
-        <v>11.2399757747887</v>
+        <v>6.817340978029761</v>
       </c>
       <c r="I15">
-        <v>21.58879468188634</v>
+        <v>3.537566320214887</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>8.216275171017317</v>
       </c>
       <c r="K15">
-        <v>29.35596389282765</v>
+        <v>15.22688312772828</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>22.61206810125261</v>
       </c>
       <c r="N15">
-        <v>9.977742719624421</v>
+        <v>5.252534259692413</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>13.611418506988</v>
+      </c>
+      <c r="Q15">
+        <v>13.4286127192757</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1082,46 +1172,52 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>4.019733351566849</v>
+        <v>9.710000707226051</v>
       </c>
       <c r="D16">
-        <v>2.62613457836936</v>
+        <v>6.017594155665555</v>
       </c>
       <c r="E16">
-        <v>38.23379427011621</v>
+        <v>8.521461824167867</v>
       </c>
       <c r="F16">
-        <v>28.6561261696557</v>
+        <v>17.51192435603181</v>
       </c>
       <c r="G16">
-        <v>41.94038938795379</v>
+        <v>20.92173191798443</v>
       </c>
       <c r="H16">
-        <v>11.00180433268922</v>
+        <v>6.549461893768236</v>
       </c>
       <c r="I16">
-        <v>20.78288578919257</v>
+        <v>3.436671097325403</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>8.229514687728839</v>
       </c>
       <c r="K16">
-        <v>28.38694826627195</v>
+        <v>15.13503110412261</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>21.93073743299521</v>
       </c>
       <c r="N16">
-        <v>10.12240652093007</v>
+        <v>5.258457872105994</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>13.52484258786942</v>
+      </c>
+      <c r="Q16">
+        <v>13.38378862962324</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1129,46 +1225,52 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>3.957269331801912</v>
+        <v>9.884636949840081</v>
       </c>
       <c r="D17">
-        <v>2.640816034109581</v>
+        <v>5.875460316705551</v>
       </c>
       <c r="E17">
-        <v>37.29807760317351</v>
+        <v>8.909130517815763</v>
       </c>
       <c r="F17">
-        <v>28.03899662283158</v>
+        <v>17.61185916671025</v>
       </c>
       <c r="G17">
-        <v>40.96378172484002</v>
+        <v>21.1917929794611</v>
       </c>
       <c r="H17">
-        <v>10.85916306205132</v>
+        <v>5.809298832650764</v>
       </c>
       <c r="I17">
-        <v>20.36152973882155</v>
+        <v>3.385856188395092</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>8.310894890044498</v>
       </c>
       <c r="K17">
-        <v>27.78051182614663</v>
+        <v>15.33296952655981</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>21.60478137303807</v>
       </c>
       <c r="N17">
-        <v>10.21180211643922</v>
+        <v>5.418392908668581</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>13.41704539883831</v>
+      </c>
+      <c r="Q17">
+        <v>13.54320606451659</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1176,46 +1278,52 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>3.920898730707455</v>
+        <v>10.41254019855494</v>
       </c>
       <c r="D18">
-        <v>2.649322327332653</v>
+        <v>5.718524197835764</v>
       </c>
       <c r="E18">
-        <v>36.75586259013039</v>
+        <v>9.81601158462915</v>
       </c>
       <c r="F18">
-        <v>27.70365359840016</v>
+        <v>18.03013062667261</v>
       </c>
       <c r="G18">
-        <v>40.40041889065507</v>
+        <v>21.99188044474053</v>
       </c>
       <c r="H18">
-        <v>10.77836526782642</v>
+        <v>4.623352079120417</v>
       </c>
       <c r="I18">
-        <v>20.13973606306683</v>
+        <v>3.372579109828826</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>8.463127239584535</v>
       </c>
       <c r="K18">
-        <v>27.42722804080513</v>
+        <v>15.81984853845936</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>21.56535033795722</v>
       </c>
       <c r="N18">
-        <v>10.26346382429345</v>
+        <v>5.813960510136056</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>13.27729294880176</v>
+      </c>
+      <c r="Q18">
+        <v>13.90433721850147</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1223,46 +1331,52 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>3.908508443511459</v>
+        <v>11.14176227885556</v>
       </c>
       <c r="D19">
-        <v>2.652212570935512</v>
+        <v>5.571582641820571</v>
       </c>
       <c r="E19">
-        <v>36.57156174945464</v>
+        <v>11.14243674994134</v>
       </c>
       <c r="F19">
-        <v>27.59009674377693</v>
+        <v>18.6314312631381</v>
       </c>
       <c r="G19">
-        <v>40.20938096602226</v>
+        <v>23.08677454383308</v>
       </c>
       <c r="H19">
-        <v>10.75121990421052</v>
+        <v>3.333578661179791</v>
       </c>
       <c r="I19">
-        <v>20.06475587817327</v>
+        <v>3.399691484128085</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>8.651199447144247</v>
       </c>
       <c r="K19">
-        <v>27.30683631405774</v>
+        <v>16.46487773843848</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>21.7461112933577</v>
       </c>
       <c r="N19">
-        <v>10.28099795781201</v>
+        <v>6.468978463924113</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>13.13236196397653</v>
+      </c>
+      <c r="Q19">
+        <v>14.37410267267635</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1270,46 +1384,52 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>3.96396463394973</v>
+        <v>12.46378414481112</v>
       </c>
       <c r="D20">
-        <v>2.63924664412717</v>
+        <v>5.449481408003433</v>
       </c>
       <c r="E20">
-        <v>37.3980954456776</v>
+        <v>13.47099076156306</v>
       </c>
       <c r="F20">
-        <v>28.10105436993768</v>
+        <v>19.76864540529008</v>
       </c>
       <c r="G20">
-        <v>41.06791078579808</v>
+        <v>25.04466265774753</v>
       </c>
       <c r="H20">
-        <v>10.87421792225783</v>
+        <v>2.498238809288194</v>
       </c>
       <c r="I20">
-        <v>20.40263393589149</v>
+        <v>3.5269298233916</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>8.950948334710954</v>
       </c>
       <c r="K20">
-        <v>27.84552977730615</v>
+        <v>17.58802363397663</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>22.54987761329332</v>
       </c>
       <c r="N20">
-        <v>10.20226069771722</v>
+        <v>7.708975676869873</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>12.9602055187794</v>
+      </c>
+      <c r="Q20">
+        <v>15.17243055338671</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1317,46 +1437,52 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>4.144982274964584</v>
+        <v>13.11398992603928</v>
       </c>
       <c r="D21">
-        <v>2.596463542003936</v>
+        <v>5.651454616514258</v>
       </c>
       <c r="E21">
-        <v>40.12925004964821</v>
+        <v>14.2265483478295</v>
       </c>
       <c r="F21">
-        <v>30.00136027556394</v>
+        <v>20.51919904999543</v>
       </c>
       <c r="G21">
-        <v>43.9337524428004</v>
+        <v>26.10741839294634</v>
       </c>
       <c r="H21">
-        <v>11.30256542055965</v>
+        <v>2.747131043780151</v>
       </c>
       <c r="I21">
-        <v>21.79564572739975</v>
+        <v>3.731432351238272</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>9.038290312440605</v>
       </c>
       <c r="K21">
-        <v>29.60250740012524</v>
+        <v>18.10586067261901</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>23.8929131041197</v>
       </c>
       <c r="N21">
-        <v>9.94058991552725</v>
+        <v>8.055945161903654</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>13.02838448039468</v>
+      </c>
+      <c r="Q21">
+        <v>15.51791414384102</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1364,46 +1490,52 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>4.259303517987536</v>
+        <v>13.50339169503051</v>
       </c>
       <c r="D22">
-        <v>2.569191950569643</v>
+        <v>5.783712348770273</v>
       </c>
       <c r="E22">
-        <v>41.88510470559898</v>
+        <v>14.6131379656228</v>
       </c>
       <c r="F22">
-        <v>31.25323434918926</v>
+        <v>20.9843288962638</v>
       </c>
       <c r="G22">
-        <v>45.79529186043491</v>
+        <v>26.75589093408341</v>
       </c>
       <c r="H22">
-        <v>11.59428116638164</v>
+        <v>2.90046042280525</v>
       </c>
       <c r="I22">
-        <v>22.73607559069533</v>
+        <v>3.856818582189447</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>9.091642710614735</v>
       </c>
       <c r="K22">
-        <v>30.71262111969467</v>
+        <v>18.42064157383848</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>24.72150397854254</v>
       </c>
       <c r="N22">
-        <v>9.771636022546245</v>
+        <v>8.216776555140443</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>13.08034219638256</v>
+      </c>
+      <c r="Q22">
+        <v>15.73030280897549</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1411,46 +1543,52 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>4.198653978627435</v>
+        <v>13.33146294227384</v>
       </c>
       <c r="D23">
-        <v>2.583676017666418</v>
+        <v>5.709566868037542</v>
       </c>
       <c r="E23">
-        <v>40.95028177539726</v>
+        <v>14.42024858421282</v>
       </c>
       <c r="F23">
-        <v>30.586174553101</v>
+        <v>20.75686308443895</v>
       </c>
       <c r="G23">
-        <v>44.80261313031944</v>
+        <v>26.44700823901461</v>
       </c>
       <c r="H23">
-        <v>11.43747316141116</v>
+        <v>2.820216095050096</v>
       </c>
       <c r="I23">
-        <v>22.23519300227139</v>
+        <v>3.787901461540826</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>9.069458704254881</v>
       </c>
       <c r="K23">
-        <v>30.12353604176454</v>
+        <v>18.27790209500946</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>24.29119108940411</v>
       </c>
       <c r="N23">
-        <v>9.861626015118706</v>
+        <v>8.129371714982005</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>13.04798798118811</v>
+      </c>
+      <c r="Q23">
+        <v>15.63281767036623</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1458,46 +1596,52 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>3.960939117646668</v>
+        <v>12.59522171175152</v>
       </c>
       <c r="D24">
-        <v>2.639955961969871</v>
+        <v>5.425889600725457</v>
       </c>
       <c r="E24">
-        <v>37.3528907141658</v>
+        <v>13.64323911487979</v>
       </c>
       <c r="F24">
-        <v>28.07299877194523</v>
+        <v>19.85880579927031</v>
       </c>
       <c r="G24">
-        <v>41.02083998021502</v>
+        <v>25.21135321142788</v>
       </c>
       <c r="H24">
-        <v>10.86740786239668</v>
+        <v>2.507166175192165</v>
       </c>
       <c r="I24">
-        <v>20.38404892377886</v>
+        <v>3.524863576286563</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>8.981163015230708</v>
       </c>
       <c r="K24">
-        <v>27.81614961771059</v>
+        <v>17.69403946586612</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>22.57047594081807</v>
       </c>
       <c r="N24">
-        <v>10.20657354030614</v>
+        <v>7.793480901800834</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>12.93790722060399</v>
+      </c>
+      <c r="Q24">
+        <v>15.24623124625589</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1505,43 +1649,49 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>3.687646215938416</v>
+        <v>11.73918083906561</v>
       </c>
       <c r="D25">
-        <v>2.70300455161923</v>
+        <v>5.100570463675808</v>
       </c>
       <c r="E25">
-        <v>33.316321089079</v>
+        <v>12.74940737568729</v>
       </c>
       <c r="F25">
-        <v>25.62475815691902</v>
+        <v>18.88703081520145</v>
       </c>
       <c r="G25">
-        <v>36.96987796909597</v>
+        <v>23.87002354336363</v>
       </c>
       <c r="H25">
-        <v>10.29988980188182</v>
+        <v>2.153749621885474</v>
       </c>
       <c r="I25">
-        <v>18.77813239511162</v>
+        <v>3.22998346293395</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>8.899223340698072</v>
       </c>
       <c r="K25">
-        <v>25.15534908228253</v>
+        <v>17.06102819934381</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>20.54781092512956</v>
       </c>
       <c r="N25">
-        <v>10.58804896681697</v>
+        <v>7.415065138858365</v>
       </c>
       <c r="O25">
         <v>0</v>
+      </c>
+      <c r="P25">
+        <v>12.82996216602166</v>
+      </c>
+      <c r="Q25">
+        <v>14.84905167652434</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_25/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_25/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,8 +421,14 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -430,52 +436,58 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>11.15516681105269</v>
+        <v>9.815825279241446</v>
       </c>
       <c r="D2">
-        <v>4.834222511177281</v>
+        <v>4.951954617805312</v>
       </c>
       <c r="E2">
-        <v>12.08003756035451</v>
+        <v>11.63906183860077</v>
       </c>
       <c r="F2">
-        <v>18.22910380962027</v>
+        <v>17.56557708044628</v>
       </c>
       <c r="G2">
-        <v>22.98180257451985</v>
+        <v>21.1454318166278</v>
       </c>
       <c r="H2">
-        <v>1.882843145631876</v>
+        <v>1.889242781813476</v>
       </c>
       <c r="I2">
-        <v>2.997812814646108</v>
+        <v>3.013733871044201</v>
       </c>
       <c r="J2">
-        <v>8.866102732447619</v>
+        <v>9.169167174135847</v>
       </c>
       <c r="K2">
-        <v>16.66046376328979</v>
+        <v>15.80673905677021</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>13.72208354262938</v>
       </c>
       <c r="M2">
-        <v>18.939186802699</v>
+        <v>9.866466698240687</v>
       </c>
       <c r="N2">
-        <v>7.118630595783572</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>18.66301418857908</v>
       </c>
       <c r="P2">
-        <v>12.74939520819975</v>
+        <v>7.224988971011176</v>
       </c>
       <c r="Q2">
-        <v>14.61582338241116</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>12.85667339829006</v>
+      </c>
+      <c r="S2">
+        <v>14.1113800416043</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -483,52 +495,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>10.67508631324971</v>
+        <v>9.452860052921999</v>
       </c>
       <c r="D3">
-        <v>4.650186523625412</v>
+        <v>4.744553323604758</v>
       </c>
       <c r="E3">
-        <v>11.58044662523029</v>
+        <v>11.19011113812843</v>
       </c>
       <c r="F3">
-        <v>17.75561257333188</v>
+        <v>17.16822777439203</v>
       </c>
       <c r="G3">
-        <v>22.32601384796872</v>
+        <v>20.62650707195507</v>
       </c>
       <c r="H3">
-        <v>1.688155771113143</v>
+        <v>1.710974982687646</v>
       </c>
       <c r="I3">
-        <v>2.835883752620898</v>
+        <v>2.871833351619233</v>
       </c>
       <c r="J3">
-        <v>8.840615288338066</v>
+        <v>9.137507135505194</v>
       </c>
       <c r="K3">
-        <v>16.352520343129</v>
+        <v>15.58494090732102</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>13.7256422978272</v>
       </c>
       <c r="M3">
-        <v>17.74558416684612</v>
+        <v>9.500258490036909</v>
       </c>
       <c r="N3">
-        <v>6.913333961455119</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>17.50960539192563</v>
       </c>
       <c r="P3">
-        <v>12.70614343812607</v>
+        <v>7.020198446024019</v>
       </c>
       <c r="Q3">
-        <v>14.44470454606839</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>12.78650764685067</v>
+      </c>
+      <c r="S3">
+        <v>13.99600832058591</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -536,52 +554,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>10.36384482492176</v>
+        <v>9.215778048257722</v>
       </c>
       <c r="D4">
-        <v>4.532860321763664</v>
+        <v>4.612256543781653</v>
       </c>
       <c r="E4">
-        <v>11.26032447249169</v>
+        <v>10.90220797371219</v>
       </c>
       <c r="F4">
-        <v>17.46647668815786</v>
+        <v>16.92589690875032</v>
       </c>
       <c r="G4">
-        <v>21.92380542666842</v>
+        <v>20.31172961954075</v>
       </c>
       <c r="H4">
-        <v>1.563932967445931</v>
+        <v>1.597147373177612</v>
       </c>
       <c r="I4">
-        <v>2.733043448594504</v>
+        <v>2.781793889721908</v>
       </c>
       <c r="J4">
-        <v>8.827690561496802</v>
+        <v>9.118953131753267</v>
       </c>
       <c r="K4">
-        <v>16.1630085341948</v>
+        <v>15.44794845430395</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>13.72474474172595</v>
       </c>
       <c r="M4">
-        <v>16.96781785038869</v>
+        <v>9.290027744372052</v>
       </c>
       <c r="N4">
-        <v>6.784059478821533</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>16.75803349865379</v>
       </c>
       <c r="P4">
-        <v>12.68236915389114</v>
+        <v>6.89158504743267</v>
       </c>
       <c r="Q4">
-        <v>14.34415687974543</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>12.74632865217634</v>
+      </c>
+      <c r="S4">
+        <v>13.9290050615515</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -589,52 +613,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>10.22185059612883</v>
+        <v>9.105000246706982</v>
       </c>
       <c r="D5">
-        <v>4.485185624531177</v>
+        <v>4.558361496084367</v>
       </c>
       <c r="E5">
-        <v>11.12268935609749</v>
+        <v>10.77805324484978</v>
       </c>
       <c r="F5">
-        <v>17.34306702323976</v>
+        <v>16.82166403625832</v>
       </c>
       <c r="G5">
-        <v>21.74908146012589</v>
+        <v>20.17349780994186</v>
       </c>
       <c r="H5">
-        <v>1.610616868918832</v>
+        <v>1.572135770347231</v>
       </c>
       <c r="I5">
-        <v>2.690708122979518</v>
+        <v>2.745075238528019</v>
       </c>
       <c r="J5">
-        <v>8.821360367570353</v>
+        <v>9.109932090142028</v>
       </c>
       <c r="K5">
-        <v>16.07859222844825</v>
+        <v>15.38510408123181</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>13.71795087739764</v>
       </c>
       <c r="M5">
-        <v>16.63666191348074</v>
+        <v>9.203687912931748</v>
       </c>
       <c r="N5">
-        <v>6.731155322176479</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>16.43798770725768</v>
       </c>
       <c r="P5">
-        <v>12.67434989430352</v>
+        <v>6.839052768040001</v>
       </c>
       <c r="Q5">
-        <v>14.29983548785707</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>12.73169020945146</v>
+      </c>
+      <c r="S5">
+        <v>13.89832687044437</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -642,52 +672,58 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>10.18443514340994</v>
+        <v>9.07340356305278</v>
       </c>
       <c r="D6">
-        <v>4.47866775713464</v>
+        <v>4.550837384322525</v>
       </c>
       <c r="E6">
-        <v>11.09483144271197</v>
+        <v>10.75255422019149</v>
       </c>
       <c r="F6">
-        <v>17.31511442786647</v>
+        <v>16.79705886470635</v>
       </c>
       <c r="G6">
-        <v>21.70647372704899</v>
+        <v>20.13711705262701</v>
       </c>
       <c r="H6">
-        <v>1.620076684353254</v>
+        <v>1.580826093004152</v>
       </c>
       <c r="I6">
-        <v>2.68436893292786</v>
+        <v>2.740047032348931</v>
       </c>
       <c r="J6">
-        <v>8.818229227081318</v>
+        <v>9.106393109295855</v>
       </c>
       <c r="K6">
-        <v>16.05582818212696</v>
+        <v>15.36628365222096</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>13.70988385891909</v>
       </c>
       <c r="M6">
-        <v>16.5773976951455</v>
+        <v>9.183725574526434</v>
       </c>
       <c r="N6">
-        <v>6.722990581451853</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>16.38064939080732</v>
       </c>
       <c r="P6">
-        <v>12.67426110121946</v>
+        <v>6.830966815338307</v>
       </c>
       <c r="Q6">
-        <v>14.28705755642518</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>12.7305398613435</v>
+      </c>
+      <c r="S6">
+        <v>13.8880025275927</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -695,52 +731,58 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>10.32533993292516</v>
+        <v>9.182294224761899</v>
       </c>
       <c r="D7">
-        <v>4.53617486701128</v>
+        <v>4.618018197381048</v>
       </c>
       <c r="E7">
-        <v>11.24553808040289</v>
+        <v>10.88859749851184</v>
       </c>
       <c r="F7">
-        <v>17.44449893942992</v>
+        <v>16.89265009373326</v>
       </c>
       <c r="G7">
-        <v>21.88457841057886</v>
+        <v>20.36449819647928</v>
       </c>
       <c r="H7">
-        <v>1.561918382908543</v>
+        <v>1.59481609269101</v>
       </c>
       <c r="I7">
-        <v>2.73413090656303</v>
+        <v>2.783438226083927</v>
       </c>
       <c r="J7">
-        <v>8.821823026519084</v>
+        <v>9.076039722741246</v>
       </c>
       <c r="K7">
-        <v>16.13811521570229</v>
+        <v>15.41688542649698</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>13.70018545440324</v>
       </c>
       <c r="M7">
-        <v>16.95379393692647</v>
+        <v>9.267082039232401</v>
       </c>
       <c r="N7">
-        <v>6.785156283207029</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>16.7386204748965</v>
       </c>
       <c r="P7">
-        <v>12.68557865005577</v>
+        <v>6.892255567277304</v>
       </c>
       <c r="Q7">
-        <v>14.32862408881927</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>12.75160314600153</v>
+      </c>
+      <c r="S7">
+        <v>13.90553387917087</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -748,52 +790,58 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>10.94708486633716</v>
+        <v>9.659217698654064</v>
       </c>
       <c r="D8">
-        <v>4.776738700579709</v>
+        <v>4.894447256256593</v>
       </c>
       <c r="E8">
-        <v>11.89436179340863</v>
+        <v>11.47330595135242</v>
       </c>
       <c r="F8">
-        <v>18.03952870547672</v>
+        <v>17.36413543677154</v>
       </c>
       <c r="G8">
-        <v>22.70852027873018</v>
+        <v>21.21386175560548</v>
       </c>
       <c r="H8">
-        <v>1.8150261962132</v>
+        <v>1.825745597488128</v>
       </c>
       <c r="I8">
-        <v>2.944299109249304</v>
+        <v>2.966756132848483</v>
       </c>
       <c r="J8">
-        <v>8.849145616843582</v>
+        <v>9.029408321288548</v>
       </c>
       <c r="K8">
-        <v>16.52365548733762</v>
+        <v>15.67679309342965</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>13.68252422899028</v>
       </c>
       <c r="M8">
-        <v>18.52516631778152</v>
+        <v>9.696307766942414</v>
       </c>
       <c r="N8">
-        <v>7.050888019788901</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>18.24523463217312</v>
       </c>
       <c r="P8">
-        <v>12.73845048017698</v>
+        <v>7.155954972965348</v>
       </c>
       <c r="Q8">
-        <v>14.53641650142919</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>12.84362520449486</v>
+      </c>
+      <c r="S8">
+        <v>14.02364565021841</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -801,52 +849,58 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>12.09285168426832</v>
+        <v>10.52704051587961</v>
       </c>
       <c r="D9">
-        <v>5.206238057132587</v>
+        <v>5.379870439266073</v>
       </c>
       <c r="E9">
-        <v>13.07796289037027</v>
+        <v>12.53757182009736</v>
       </c>
       <c r="F9">
-        <v>19.24777880850971</v>
+        <v>18.37592375477892</v>
       </c>
       <c r="G9">
-        <v>24.38257896889001</v>
+        <v>22.62794617095537</v>
       </c>
       <c r="H9">
-        <v>2.277029787571821</v>
+        <v>2.24813281684019</v>
       </c>
       <c r="I9">
-        <v>3.328203278961278</v>
+        <v>3.302098944310878</v>
       </c>
       <c r="J9">
-        <v>8.935266158800291</v>
+        <v>9.087946106231932</v>
       </c>
       <c r="K9">
-        <v>17.31450416812144</v>
+        <v>16.24551977798689</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>13.67585273399486</v>
       </c>
       <c r="M9">
-        <v>21.26570633652984</v>
+        <v>10.68562185949821</v>
       </c>
       <c r="N9">
-        <v>7.541522953853737</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>20.89111293631448</v>
       </c>
       <c r="P9">
-        <v>12.8584556143717</v>
+        <v>7.646784512351595</v>
       </c>
       <c r="Q9">
-        <v>15.0057944170317</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>13.0333254877379</v>
+      </c>
+      <c r="S9">
+        <v>14.34333706165618</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -854,52 +908,58 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>12.72462650908522</v>
+        <v>11.00271020169354</v>
       </c>
       <c r="D10">
-        <v>5.517970550550077</v>
+        <v>5.740299355543526</v>
       </c>
       <c r="E10">
-        <v>13.66421647342875</v>
+        <v>13.0538618266116</v>
       </c>
       <c r="F10">
-        <v>20.03540505266193</v>
+        <v>18.97032861520104</v>
       </c>
       <c r="G10">
-        <v>25.42620962532966</v>
+        <v>23.98465982948298</v>
       </c>
       <c r="H10">
-        <v>2.582342882907136</v>
+        <v>2.524711485727567</v>
       </c>
       <c r="I10">
-        <v>3.58881408783071</v>
+        <v>3.528664365692937</v>
       </c>
       <c r="J10">
-        <v>8.983212549567899</v>
+        <v>8.908610037903578</v>
       </c>
       <c r="K10">
-        <v>17.78255460179937</v>
+        <v>16.52534630266359</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>13.56479832836943</v>
       </c>
       <c r="M10">
-        <v>23.02194653555327</v>
+        <v>11.33780289223212</v>
       </c>
       <c r="N10">
-        <v>7.767613023249434</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>22.56275367502705</v>
       </c>
       <c r="P10">
-        <v>12.98134460573402</v>
+        <v>7.870182578158848</v>
       </c>
       <c r="Q10">
-        <v>15.29718626895251</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>13.21955683299055</v>
+      </c>
+      <c r="S10">
+        <v>14.48396063302449</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -907,52 +967,58 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>12.02385837598827</v>
+        <v>10.42062550928731</v>
       </c>
       <c r="D11">
-        <v>5.811554691940626</v>
+        <v>6.066803638154961</v>
       </c>
       <c r="E11">
-        <v>12.17035214118006</v>
+        <v>11.60237321257375</v>
       </c>
       <c r="F11">
-        <v>19.6074689634928</v>
+        <v>18.42857347479573</v>
       </c>
       <c r="G11">
-        <v>24.49178259301824</v>
+        <v>24.11720188577376</v>
       </c>
       <c r="H11">
-        <v>3.301160011737543</v>
+        <v>3.249676047950121</v>
       </c>
       <c r="I11">
-        <v>3.652065037894834</v>
+        <v>3.583199133532132</v>
       </c>
       <c r="J11">
-        <v>8.763922407790648</v>
+        <v>8.330173219134453</v>
       </c>
       <c r="K11">
-        <v>17.145377573403</v>
+        <v>15.85130248317183</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>12.96317243197963</v>
       </c>
       <c r="M11">
-        <v>23.4496514238087</v>
+        <v>10.9705332717748</v>
       </c>
       <c r="N11">
-        <v>6.914140010461763</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>22.94089987990434</v>
       </c>
       <c r="P11">
-        <v>13.21326532412143</v>
+        <v>6.992967949143535</v>
       </c>
       <c r="Q11">
-        <v>14.82298067355313</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>13.49523849058536</v>
+      </c>
+      <c r="S11">
+        <v>13.93395474061935</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -960,52 +1026,58 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>11.35483066910842</v>
+        <v>9.876831626870107</v>
       </c>
       <c r="D12">
-        <v>5.993452327052285</v>
+        <v>6.258728188133304</v>
       </c>
       <c r="E12">
-        <v>10.86205174160581</v>
+        <v>10.3482110681523</v>
       </c>
       <c r="F12">
-        <v>19.09477659109837</v>
+        <v>17.89891002436668</v>
       </c>
       <c r="G12">
-        <v>23.51262075699975</v>
+        <v>23.68492801291817</v>
       </c>
       <c r="H12">
-        <v>4.440954984120158</v>
+        <v>4.402916616904665</v>
       </c>
       <c r="I12">
-        <v>3.653470748787405</v>
+        <v>3.583350088765467</v>
       </c>
       <c r="J12">
-        <v>8.573105611484703</v>
+        <v>8.031146874783428</v>
       </c>
       <c r="K12">
-        <v>16.53471312216278</v>
+        <v>15.27585831246595</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>12.52575347831789</v>
       </c>
       <c r="M12">
-        <v>23.4639321408298</v>
+        <v>10.55758477736447</v>
       </c>
       <c r="N12">
-        <v>6.222970379235104</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>22.94586166858281</v>
       </c>
       <c r="P12">
-        <v>13.3835650507078</v>
+        <v>6.279871150127302</v>
       </c>
       <c r="Q12">
-        <v>14.3727940577191</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>13.68060563007115</v>
+      </c>
+      <c r="S12">
+        <v>13.48309421674234</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1013,52 +1085,58 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>10.61085012177598</v>
+        <v>9.27088080532325</v>
       </c>
       <c r="D13">
-        <v>6.109017806260103</v>
+        <v>6.361527658722207</v>
       </c>
       <c r="E13">
-        <v>9.604720823110325</v>
+        <v>9.161008846876408</v>
       </c>
       <c r="F13">
-        <v>18.44591159872079</v>
+        <v>17.33481620015539</v>
       </c>
       <c r="G13">
-        <v>22.36736190619962</v>
+        <v>22.51406705399134</v>
       </c>
       <c r="H13">
-        <v>5.693529369223306</v>
+        <v>5.667192662149255</v>
       </c>
       <c r="I13">
-        <v>3.609544421011333</v>
+        <v>3.5460533815935</v>
       </c>
       <c r="J13">
-        <v>8.383225306532283</v>
+        <v>7.949540134774546</v>
       </c>
       <c r="K13">
-        <v>15.86721841277626</v>
+        <v>14.71924320148784</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>12.16419915672541</v>
       </c>
       <c r="M13">
-        <v>23.15105589852365</v>
+        <v>10.06769486564515</v>
       </c>
       <c r="N13">
-        <v>5.640218540853779</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>22.66498458207347</v>
       </c>
       <c r="P13">
-        <v>13.51899793862131</v>
+        <v>5.675991292552047</v>
       </c>
       <c r="Q13">
-        <v>13.88733660176827</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>13.8026280895369</v>
+      </c>
+      <c r="S13">
+        <v>13.07550051193821</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1066,52 +1144,58 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>10.04555675365876</v>
+        <v>8.811527518317831</v>
       </c>
       <c r="D14">
-        <v>6.16217098429876</v>
+        <v>6.395266039735382</v>
       </c>
       <c r="E14">
-        <v>8.776168894184222</v>
+        <v>8.393430724623819</v>
       </c>
       <c r="F14">
-        <v>17.91997409464668</v>
+        <v>16.91350760924014</v>
       </c>
       <c r="G14">
-        <v>21.47263837846754</v>
+        <v>21.35249842469538</v>
       </c>
       <c r="H14">
-        <v>6.608592935287246</v>
+        <v>6.588981275619219</v>
       </c>
       <c r="I14">
-        <v>3.559229402390951</v>
+        <v>3.504192385732404</v>
       </c>
       <c r="J14">
-        <v>8.249777971139441</v>
+        <v>7.974882175649858</v>
       </c>
       <c r="K14">
-        <v>15.3673909990301</v>
+        <v>14.33006265459705</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>11.93690951060169</v>
       </c>
       <c r="M14">
-        <v>22.77750770709657</v>
+        <v>9.68369567103635</v>
       </c>
       <c r="N14">
-        <v>5.317740114136805</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>22.33252607984582</v>
       </c>
       <c r="P14">
-        <v>13.59894511337146</v>
+        <v>5.339019833926629</v>
       </c>
       <c r="Q14">
-        <v>13.52738357758708</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>13.86020160110446</v>
+      </c>
+      <c r="S14">
+        <v>12.80375585456764</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1119,52 +1203,58 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>9.879560423347753</v>
+        <v>8.675553274436682</v>
       </c>
       <c r="D15">
-        <v>6.162139377893083</v>
+        <v>6.385981326943391</v>
       </c>
       <c r="E15">
-        <v>8.576046576989402</v>
+        <v>8.211435663690729</v>
       </c>
       <c r="F15">
-        <v>17.75681647513278</v>
+        <v>16.79538059745338</v>
       </c>
       <c r="G15">
-        <v>21.20818568135776</v>
+        <v>20.91794373046667</v>
       </c>
       <c r="H15">
-        <v>6.817340978029761</v>
+        <v>6.799636023504769</v>
       </c>
       <c r="I15">
-        <v>3.537566320214887</v>
+        <v>3.486788921804818</v>
       </c>
       <c r="J15">
-        <v>8.216275171017317</v>
+        <v>8.016165055538549</v>
       </c>
       <c r="K15">
-        <v>15.22688312772828</v>
+        <v>14.23073446266826</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>11.8892078734691</v>
       </c>
       <c r="M15">
-        <v>22.61206810125261</v>
+        <v>9.568108207273644</v>
       </c>
       <c r="N15">
-        <v>5.252534259692413</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>22.18531860539245</v>
       </c>
       <c r="P15">
-        <v>13.611418506988</v>
+        <v>5.271149593515512</v>
       </c>
       <c r="Q15">
-        <v>13.4286127192757</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>13.86165464932294</v>
+      </c>
+      <c r="S15">
+        <v>12.74086722749805</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1172,52 +1262,58 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>9.710000707226051</v>
+        <v>8.530896801649863</v>
       </c>
       <c r="D16">
-        <v>6.017594155665555</v>
+        <v>6.202995286440451</v>
       </c>
       <c r="E16">
-        <v>8.521461824167867</v>
+        <v>8.172209542940776</v>
       </c>
       <c r="F16">
-        <v>17.51192435603181</v>
+        <v>16.71340706327352</v>
       </c>
       <c r="G16">
-        <v>20.92173191798443</v>
+        <v>19.77798708396647</v>
       </c>
       <c r="H16">
-        <v>6.549461893768236</v>
+        <v>6.536693026728611</v>
       </c>
       <c r="I16">
-        <v>3.436671097325403</v>
+        <v>3.402709860273086</v>
       </c>
       <c r="J16">
-        <v>8.229514687728839</v>
+        <v>8.343347398556853</v>
       </c>
       <c r="K16">
-        <v>15.13503110412261</v>
+        <v>14.25534177076345</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>12.00764983386641</v>
       </c>
       <c r="M16">
-        <v>21.93073743299521</v>
+        <v>9.421128693129463</v>
       </c>
       <c r="N16">
-        <v>5.258457872105994</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>21.57379653901725</v>
       </c>
       <c r="P16">
-        <v>13.52484258786942</v>
+        <v>5.286713894944062</v>
       </c>
       <c r="Q16">
-        <v>13.38378862962324</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>13.72768910826257</v>
+      </c>
+      <c r="S16">
+        <v>12.81488428462909</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1225,52 +1321,58 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>9.884636949840081</v>
+        <v>8.668894648802114</v>
       </c>
       <c r="D17">
-        <v>5.875460316705551</v>
+        <v>6.045604747039135</v>
       </c>
       <c r="E17">
-        <v>8.909130517815763</v>
+        <v>8.536626949577032</v>
       </c>
       <c r="F17">
-        <v>17.61185916671025</v>
+        <v>16.86563859107932</v>
       </c>
       <c r="G17">
-        <v>21.1917929794611</v>
+        <v>19.66191881872894</v>
       </c>
       <c r="H17">
-        <v>5.809298832650764</v>
+        <v>5.797720477098276</v>
       </c>
       <c r="I17">
-        <v>3.385856188395092</v>
+        <v>3.359946807411649</v>
       </c>
       <c r="J17">
-        <v>8.310894890044498</v>
+        <v>8.55443746724319</v>
       </c>
       <c r="K17">
-        <v>15.33296952655981</v>
+        <v>14.47475945186996</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>12.2207627896786</v>
       </c>
       <c r="M17">
-        <v>21.60478137303807</v>
+        <v>9.506397202455826</v>
       </c>
       <c r="N17">
-        <v>5.418392908668581</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>21.2725342354925</v>
       </c>
       <c r="P17">
-        <v>13.41704539883831</v>
+        <v>5.461280087012293</v>
       </c>
       <c r="Q17">
-        <v>13.54320606451659</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>13.60012343538493</v>
+      </c>
+      <c r="S17">
+        <v>13.00741730398167</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1278,52 +1380,58 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>10.41254019855494</v>
+        <v>9.098311558110582</v>
       </c>
       <c r="D18">
-        <v>5.718524197835764</v>
+        <v>5.886709041773543</v>
       </c>
       <c r="E18">
-        <v>9.81601158462915</v>
+        <v>9.389934573974298</v>
       </c>
       <c r="F18">
-        <v>18.03013062667261</v>
+        <v>17.27043214592363</v>
       </c>
       <c r="G18">
-        <v>21.99188044474053</v>
+        <v>20.24835104729368</v>
       </c>
       <c r="H18">
-        <v>4.623352079120417</v>
+        <v>4.609327791948498</v>
       </c>
       <c r="I18">
-        <v>3.372579109828826</v>
+        <v>3.347210187443491</v>
       </c>
       <c r="J18">
-        <v>8.463127239584535</v>
+        <v>8.745085628313237</v>
       </c>
       <c r="K18">
-        <v>15.81984853845936</v>
+        <v>14.91841540541134</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>12.56641311818725</v>
       </c>
       <c r="M18">
-        <v>21.56535033795722</v>
+        <v>9.821198597759558</v>
       </c>
       <c r="N18">
-        <v>5.813960510136056</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>21.23032096501365</v>
       </c>
       <c r="P18">
-        <v>13.27729294880176</v>
+        <v>5.876272530939906</v>
       </c>
       <c r="Q18">
-        <v>13.90433721850147</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>13.45579506357077</v>
+      </c>
+      <c r="S18">
+        <v>13.34989003180069</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1331,52 +1439,58 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>11.14176227885556</v>
+        <v>9.693476615049658</v>
       </c>
       <c r="D19">
-        <v>5.571582641820571</v>
+        <v>5.746179442815958</v>
       </c>
       <c r="E19">
-        <v>11.14243674994134</v>
+        <v>10.65110162021569</v>
       </c>
       <c r="F19">
-        <v>18.6314312631381</v>
+        <v>17.81771539489929</v>
       </c>
       <c r="G19">
-        <v>23.08677454383308</v>
+        <v>21.20876106957511</v>
       </c>
       <c r="H19">
-        <v>3.333578661179791</v>
+        <v>3.311300666557443</v>
       </c>
       <c r="I19">
-        <v>3.399691484128085</v>
+        <v>3.371038212221233</v>
       </c>
       <c r="J19">
-        <v>8.651199447144247</v>
+        <v>8.921355073631887</v>
       </c>
       <c r="K19">
-        <v>16.46487773843848</v>
+        <v>15.48012631928081</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>12.97445673932574</v>
       </c>
       <c r="M19">
-        <v>21.7461112933577</v>
+        <v>10.2685439320781</v>
       </c>
       <c r="N19">
-        <v>6.468978463924113</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>21.39069158086104</v>
       </c>
       <c r="P19">
-        <v>13.13236196397653</v>
+        <v>6.551221431984616</v>
       </c>
       <c r="Q19">
-        <v>14.37410267267635</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>13.31594671302608</v>
+      </c>
+      <c r="S19">
+        <v>13.76944514665074</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1384,52 +1498,58 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>12.46378414481112</v>
+        <v>10.77969966554375</v>
       </c>
       <c r="D20">
-        <v>5.449481408003433</v>
+        <v>5.651857817294751</v>
       </c>
       <c r="E20">
-        <v>13.47099076156306</v>
+        <v>12.87736836576137</v>
       </c>
       <c r="F20">
-        <v>19.76864540529008</v>
+        <v>18.79396014476161</v>
       </c>
       <c r="G20">
-        <v>25.04466265774753</v>
+        <v>23.23011295937386</v>
       </c>
       <c r="H20">
-        <v>2.498238809288194</v>
+        <v>2.449542025452799</v>
       </c>
       <c r="I20">
-        <v>3.5269298233916</v>
+        <v>3.480313562154159</v>
       </c>
       <c r="J20">
-        <v>8.950948334710954</v>
+        <v>9.062860426025269</v>
       </c>
       <c r="K20">
-        <v>17.58802363397663</v>
+        <v>16.40849608139421</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>13.56325024016153</v>
       </c>
       <c r="M20">
-        <v>22.54987761329332</v>
+        <v>11.1296644294729</v>
       </c>
       <c r="N20">
-        <v>7.708975676869873</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>22.12869127054683</v>
       </c>
       <c r="P20">
-        <v>12.9602055187794</v>
+        <v>7.813575188677076</v>
       </c>
       <c r="Q20">
-        <v>15.17243055338671</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>13.17393465397614</v>
+      </c>
+      <c r="S20">
+        <v>14.43055248979601</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1437,52 +1557,58 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>13.11398992603928</v>
+        <v>11.33161836967624</v>
       </c>
       <c r="D21">
-        <v>5.651454616514258</v>
+        <v>5.930739814287756</v>
       </c>
       <c r="E21">
-        <v>14.2265483478295</v>
+        <v>13.58266230329322</v>
       </c>
       <c r="F21">
-        <v>20.51919904999543</v>
+        <v>19.18470263692327</v>
       </c>
       <c r="G21">
-        <v>26.10741839294634</v>
+        <v>26.03445465999928</v>
       </c>
       <c r="H21">
-        <v>2.747131043780151</v>
+        <v>2.669142948109066</v>
       </c>
       <c r="I21">
-        <v>3.731432351238272</v>
+        <v>3.650821420355184</v>
       </c>
       <c r="J21">
-        <v>9.038290312440605</v>
+        <v>8.356265466697236</v>
       </c>
       <c r="K21">
-        <v>18.10586067261901</v>
+        <v>16.63358641834848</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>13.48707313699537</v>
       </c>
       <c r="M21">
-        <v>23.8929131041197</v>
+        <v>11.6435569624231</v>
       </c>
       <c r="N21">
-        <v>8.055945161903654</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>23.32352984846502</v>
       </c>
       <c r="P21">
-        <v>13.02838448039468</v>
+        <v>8.155062629281691</v>
       </c>
       <c r="Q21">
-        <v>15.51791414384102</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>13.33559915270169</v>
+      </c>
+      <c r="S21">
+        <v>14.49191907750278</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1490,52 +1616,58 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>13.50339169503051</v>
+        <v>11.67051950932764</v>
       </c>
       <c r="D22">
-        <v>5.783712348770273</v>
+        <v>6.113978594870629</v>
       </c>
       <c r="E22">
-        <v>14.6131379656228</v>
+        <v>13.94249578241953</v>
       </c>
       <c r="F22">
-        <v>20.9843288962638</v>
+        <v>19.4075730104055</v>
       </c>
       <c r="G22">
-        <v>26.75589093408341</v>
+        <v>27.92465815658982</v>
       </c>
       <c r="H22">
-        <v>2.90046042280525</v>
+        <v>2.804095605132511</v>
       </c>
       <c r="I22">
-        <v>3.856818582189447</v>
+        <v>3.753624373140172</v>
       </c>
       <c r="J22">
-        <v>9.091642710614735</v>
+        <v>7.908220146094784</v>
       </c>
       <c r="K22">
-        <v>18.42064157383848</v>
+        <v>16.75363153542041</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>13.41875927408612</v>
       </c>
       <c r="M22">
-        <v>24.72150397854254</v>
+        <v>11.9585826792802</v>
       </c>
       <c r="N22">
-        <v>8.216776555140443</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>24.05548664889911</v>
       </c>
       <c r="P22">
-        <v>13.08034219638256</v>
+        <v>8.311268333622172</v>
       </c>
       <c r="Q22">
-        <v>15.73030280897549</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>13.45244344241287</v>
+      </c>
+      <c r="S22">
+        <v>14.50960671579841</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1543,52 +1675,58 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>13.33146294227384</v>
+        <v>11.51666051144461</v>
       </c>
       <c r="D23">
-        <v>5.709566868037542</v>
+        <v>6.007223714755431</v>
       </c>
       <c r="E23">
-        <v>14.42024858421282</v>
+        <v>13.76158411004881</v>
       </c>
       <c r="F23">
-        <v>20.75686308443895</v>
+        <v>19.3363949925892</v>
       </c>
       <c r="G23">
-        <v>26.44700823901461</v>
+        <v>26.74194934542531</v>
       </c>
       <c r="H23">
-        <v>2.820216095050096</v>
+        <v>2.734267755781359</v>
       </c>
       <c r="I23">
-        <v>3.787901461540826</v>
+        <v>3.696161477627693</v>
       </c>
       <c r="J23">
-        <v>9.069458704254881</v>
+        <v>8.219584451758564</v>
       </c>
       <c r="K23">
-        <v>18.27790209500946</v>
+        <v>16.7314150248584</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>13.48373125688315</v>
       </c>
       <c r="M23">
-        <v>24.29119108940411</v>
+        <v>11.82506318703965</v>
       </c>
       <c r="N23">
-        <v>8.129371714982005</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>23.68726687067626</v>
       </c>
       <c r="P23">
-        <v>13.04798798118811</v>
+        <v>8.227149641825621</v>
       </c>
       <c r="Q23">
-        <v>15.63281767036623</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>13.379077389023</v>
+      </c>
+      <c r="S23">
+        <v>14.53704545408814</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1596,52 +1734,58 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>12.59522171175152</v>
+        <v>10.89521846297755</v>
       </c>
       <c r="D24">
-        <v>5.425889600725457</v>
+        <v>5.628158062639746</v>
       </c>
       <c r="E24">
-        <v>13.64323911487979</v>
+        <v>13.04423999544188</v>
       </c>
       <c r="F24">
-        <v>19.85880579927031</v>
+        <v>18.8801674477184</v>
       </c>
       <c r="G24">
-        <v>25.21135321142788</v>
+        <v>23.37188317472381</v>
       </c>
       <c r="H24">
-        <v>2.507166175192165</v>
+        <v>2.457991118896457</v>
       </c>
       <c r="I24">
-        <v>3.524863576286563</v>
+        <v>3.475852743350821</v>
       </c>
       <c r="J24">
-        <v>8.981163015230708</v>
+        <v>9.095800659468797</v>
       </c>
       <c r="K24">
-        <v>17.69403946586612</v>
+        <v>16.5058756855695</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>13.6360177626372</v>
       </c>
       <c r="M24">
-        <v>22.57047594081807</v>
+        <v>11.20431570706063</v>
       </c>
       <c r="N24">
-        <v>7.793480901800834</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>22.14792673083194</v>
       </c>
       <c r="P24">
-        <v>12.93790722060399</v>
+        <v>7.899573486813114</v>
       </c>
       <c r="Q24">
-        <v>15.24623124625589</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>13.15117040002538</v>
+      </c>
+      <c r="S24">
+        <v>14.49985125970875</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1649,49 +1793,55 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>11.73918083906561</v>
+        <v>10.24575965760764</v>
       </c>
       <c r="D25">
-        <v>5.100570463675808</v>
+        <v>5.256640287208661</v>
       </c>
       <c r="E25">
-        <v>12.74940737568729</v>
+        <v>12.23971493436493</v>
       </c>
       <c r="F25">
-        <v>18.88703081520145</v>
+        <v>18.0845143055141</v>
       </c>
       <c r="G25">
-        <v>23.87002354336363</v>
+        <v>22.06160299167171</v>
       </c>
       <c r="H25">
-        <v>2.153749621885474</v>
+        <v>2.136002866689431</v>
       </c>
       <c r="I25">
-        <v>3.22998346293395</v>
+        <v>3.218991277434989</v>
       </c>
       <c r="J25">
-        <v>8.899223340698072</v>
+        <v>9.113007008885406</v>
       </c>
       <c r="K25">
-        <v>17.06102819934381</v>
+        <v>16.06409403961174</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>13.6592047101757</v>
       </c>
       <c r="M25">
-        <v>20.54781092512956</v>
+        <v>10.38733945882998</v>
       </c>
       <c r="N25">
-        <v>7.415065138858365</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>20.20469657906737</v>
       </c>
       <c r="P25">
-        <v>12.82996216602166</v>
+        <v>7.52068045442775</v>
       </c>
       <c r="Q25">
-        <v>14.84905167652434</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>12.98301857051118</v>
+      </c>
+      <c r="S25">
+        <v>14.24050823125682</v>
       </c>
     </row>
   </sheetData>
